--- a/analysis_code/R_varSelect_Reg_final_20140611/cluster_features_counts_PARSE_freqs.xlsx
+++ b/analysis_code/R_varSelect_Reg_final_20140611/cluster_features_counts_PARSE_freqs.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31200" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="31200" windowHeight="18380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cluster_features_counts_PARSE_f" sheetId="1" r:id="rId1"/>
+    <sheet name="cluser_counts_PARSE_20140619" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="328">
   <si>
     <t>df_clust_summary</t>
   </si>
@@ -1000,6 +1001,9 @@
   </si>
   <si>
     <t xml:space="preserve">1st Qu.:7  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st Qu.:4  </t>
   </si>
 </sst>
 </file>
@@ -1063,8 +1067,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1081,17 +1093,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1423,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13128,4 +13148,7905 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K221"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="J214" sqref="J214:K215"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>2</v>
+      </c>
+      <c r="J1">
+        <v>3</v>
+      </c>
+      <c r="K1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16" thickBot="1">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2">
+        <v>1697</v>
+      </c>
+      <c r="I2" s="2">
+        <v>392</v>
+      </c>
+      <c r="J2" s="2">
+        <v>204</v>
+      </c>
+      <c r="K2" s="2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16" thickTop="1">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>882</v>
+      </c>
+      <c r="C4">
+        <v>218</v>
+      </c>
+      <c r="D4">
+        <v>111</v>
+      </c>
+      <c r="E4">
+        <v>124</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <f>B4/H$2</f>
+        <v>0.5197407189157337</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:K4" si="0">C4/I$2</f>
+        <v>0.55612244897959184</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0.54411764705882348</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0.54385964912280704</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>918</v>
+      </c>
+      <c r="C5">
+        <v>243</v>
+      </c>
+      <c r="D5">
+        <v>120</v>
+      </c>
+      <c r="E5">
+        <v>126</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H68" si="1">B5/H$2</f>
+        <v>0.54095462581025344</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I68" si="2">C5/I$2</f>
+        <v>0.61989795918367352</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J68" si="3">D5/J$2</f>
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K68" si="4">E5/K$2</f>
+        <v>0.55263157894736847</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>958</v>
+      </c>
+      <c r="C6">
+        <v>234</v>
+      </c>
+      <c r="D6">
+        <v>126</v>
+      </c>
+      <c r="E6">
+        <v>133</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0.56452563347083085</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0.59693877551020413</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>0.61764705882352944</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>1.1785503830288745E-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>2.5510204081632651E-3</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>6.1403508771929821E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>1.5910430170889805E-2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>5.1020408163265302E-3</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>1.5910430170889805E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>5.1020408163265302E-3</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>7.4561403508771926E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>892</v>
+      </c>
+      <c r="C10">
+        <v>55</v>
+      </c>
+      <c r="D10">
+        <v>79</v>
+      </c>
+      <c r="E10">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0.52563347083087797</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0.14030612244897958</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>0.38725490196078433</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>0.47807017543859648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>1454</v>
+      </c>
+      <c r="C11">
+        <v>301</v>
+      </c>
+      <c r="D11">
+        <v>153</v>
+      </c>
+      <c r="E11">
+        <v>179</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0.85680612846199178</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0.7678571428571429</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>0.78508771929824561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>218</v>
+      </c>
+      <c r="C12">
+        <v>87</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0.12846199175014733</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0.22193877551020408</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>0.24509803921568626</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>0.20614035087719298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>9.4284030642309957E-3</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>7.6530612244897957E-3</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>7.6605774896876845E-3</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>2.5510204081632651E-3</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>9.8039215686274508E-3</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>1.3157894736842105E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>569</v>
+      </c>
+      <c r="C15">
+        <v>126</v>
+      </c>
+      <c r="D15">
+        <v>86</v>
+      </c>
+      <c r="E15">
+        <v>111</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>0.33529758397171477</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>0.32142857142857145</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>0.42156862745098039</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>0.48684210526315791</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>98</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>55</v>
+      </c>
+      <c r="E16">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>5.774896876841485E-2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>1.2755102040816327E-2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>0.26960784313725489</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>0.2412280701754386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>788</v>
+      </c>
+      <c r="C17">
+        <v>199</v>
+      </c>
+      <c r="D17">
+        <v>101</v>
+      </c>
+      <c r="E17">
+        <v>110</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>0.46434885091337652</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>0.50765306122448983</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>0.49509803921568629</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>0.48245614035087719</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>543</v>
+      </c>
+      <c r="C18">
+        <v>112</v>
+      </c>
+      <c r="D18">
+        <v>61</v>
+      </c>
+      <c r="E18">
+        <v>73</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>0.31997642899233941</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>0.29901960784313725</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>0.32017543859649122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>1052</v>
+      </c>
+      <c r="C19">
+        <v>261</v>
+      </c>
+      <c r="D19">
+        <v>135</v>
+      </c>
+      <c r="E19">
+        <v>145</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>0.61991750147318803</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>0.66581632653061229</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>0.66176470588235292</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>0.63596491228070173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20">
+        <v>51</v>
+      </c>
+      <c r="C20">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>11</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>3.0053034767236298E-2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>5.3921568627450983E-2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21">
+        <v>273</v>
+      </c>
+      <c r="C21">
+        <v>57</v>
+      </c>
+      <c r="D21">
+        <v>34</v>
+      </c>
+      <c r="E21">
+        <v>54</v>
+      </c>
+      <c r="G21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>0.16087212728344136</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>0.14540816326530612</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>0.23684210526315788</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22">
+        <v>136</v>
+      </c>
+      <c r="C22">
+        <v>25</v>
+      </c>
+      <c r="D22">
+        <v>32</v>
+      </c>
+      <c r="E22">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>8.0141426045963471E-2</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>6.3775510204081634E-2</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>0.15686274509803921</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>0.13157894736842105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>121</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>1.8267530936947555E-2</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>3.4313725490196081E-2</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24">
+        <v>110</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>19</v>
+      </c>
+      <c r="E24">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>6.4820271066588095E-2</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>5.8673469387755105E-2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>9.3137254901960786E-2</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>3.9473684210526314E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>13</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>1.5910430170889805E-2</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>3.3163265306122451E-2</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>3.4313725490196081E-2</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26">
+        <v>17</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>1.0017678255745434E-2</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>1.5306122448979591E-2</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>2.1929824561403508E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>125</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>3.5356511490866236E-3</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>7.6530612244897957E-3</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>9.8039215686274508E-3</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28">
+        <v>45</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>126</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>2.6517383618149676E-2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>1.2755102040816327E-2</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>3.9215686274509803E-2</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>7.0175438596491224E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29">
+        <v>182</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>29</v>
+      </c>
+      <c r="G29" t="s">
+        <v>127</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>0.10724808485562758</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>0.10784313725490197</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>0.12719298245614036</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30">
+        <v>46</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>2.7106658809664112E-2</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>2.2959183673469389E-2</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>3.9215686274509803E-2</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="4"/>
+        <v>3.0701754385964911E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <v>38</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>129</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>1.4731879787860931E-2</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>9.6938775510204078E-2</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>1.4705882352941176E-2</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="4"/>
+        <v>1.7543859649122806E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32">
+        <v>106</v>
+      </c>
+      <c r="C32">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>19</v>
+      </c>
+      <c r="G32" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>6.2463170300530349E-2</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>4.9019607843137254E-2</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="4"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>131</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>1.1785503830288745E-2</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>1.020408163265306E-2</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>4.9019607843137254E-3</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="4"/>
+        <v>4.3859649122807015E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>132</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>4.1249263406010605E-3</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>2.5510204081632651E-3</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35">
+        <v>309</v>
+      </c>
+      <c r="C35">
+        <v>66</v>
+      </c>
+      <c r="D35">
+        <v>38</v>
+      </c>
+      <c r="E35">
+        <v>33</v>
+      </c>
+      <c r="G35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>0.1820860341779611</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>0.1683673469387755</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>0.18627450980392157</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="4"/>
+        <v>0.14473684210526316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36">
+        <v>295</v>
+      </c>
+      <c r="C36">
+        <v>60</v>
+      </c>
+      <c r="D36">
+        <v>37</v>
+      </c>
+      <c r="E36">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s">
+        <v>134</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>0.17383618149675897</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>0.15306122448979592</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>0.18137254901960784</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="4"/>
+        <v>0.17982456140350878</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>135</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>5.8927519151443725E-3</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>4.9019607843137254E-3</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38">
+        <v>41</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
+        <v>136</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>2.4160282852091926E-2</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>1.2755102040816327E-2</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="4"/>
+        <v>4.3859649122807015E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>137</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>4.7142015321154978E-3</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>1.5306122448979591E-2</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>1.4705882352941176E-2</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="4"/>
+        <v>8.771929824561403E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40">
+        <v>56</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>138</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>3.2999410724808484E-2</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>1.5306122448979591E-2</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>9.8039215686274508E-3</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="4"/>
+        <v>1.7543859649122806E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41">
+        <v>157</v>
+      </c>
+      <c r="C41">
+        <v>43</v>
+      </c>
+      <c r="D41">
+        <v>24</v>
+      </c>
+      <c r="E41">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>139</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>9.2516205067766644E-2</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>0.10969387755102041</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="4"/>
+        <v>5.701754385964912E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42">
+        <v>23</v>
+      </c>
+      <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>140</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>1.3553329404832056E-2</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="3"/>
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="4"/>
+        <v>2.1929824561403508E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="G43" t="s">
+        <v>141</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>2.9463759575721863E-3</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="3"/>
+        <v>9.8039215686274508E-3</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="4"/>
+        <v>8.771929824561403E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="G44" t="s">
+        <v>142</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>6.4820271066588098E-3</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>1.2755102040816327E-2</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="3"/>
+        <v>4.9019607843137254E-3</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="4"/>
+        <v>8.771929824561403E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45">
+        <v>17</v>
+      </c>
+      <c r="C45">
+        <v>12</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="G45" t="s">
+        <v>143</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>1.0017678255745434E-2</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>3.0612244897959183E-2</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="3"/>
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="4"/>
+        <v>1.3157894736842105E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46">
+        <v>37</v>
+      </c>
+      <c r="C46">
+        <v>9</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>144</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>2.1803182086034177E-2</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>2.2959183673469389E-2</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="3"/>
+        <v>9.8039215686274508E-3</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="4"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47">
+        <v>34</v>
+      </c>
+      <c r="C47">
+        <v>11</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>8</v>
+      </c>
+      <c r="G47" t="s">
+        <v>145</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>2.0035356511490868E-2</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>2.8061224489795918E-2</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="3"/>
+        <v>2.4509803921568627E-2</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="4"/>
+        <v>3.5087719298245612E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="G48" t="s">
+        <v>146</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>3.5356511490866236E-3</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>5.1020408163265302E-3</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="3"/>
+        <v>9.8039215686274508E-3</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="4"/>
+        <v>1.3157894736842105E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49">
+        <v>38</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>9</v>
+      </c>
+      <c r="G49" t="s">
+        <v>147</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>2.2392457277548614E-2</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="3"/>
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="4"/>
+        <v>3.9473684210526314E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50">
+        <v>666</v>
+      </c>
+      <c r="C50">
+        <v>141</v>
+      </c>
+      <c r="D50">
+        <v>97</v>
+      </c>
+      <c r="E50">
+        <v>120</v>
+      </c>
+      <c r="G50" t="s">
+        <v>148</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>0.3924572775486152</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>0.35969387755102039</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="3"/>
+        <v>0.47549019607843135</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="4"/>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51">
+        <v>1390</v>
+      </c>
+      <c r="C51">
+        <v>288</v>
+      </c>
+      <c r="D51">
+        <v>180</v>
+      </c>
+      <c r="E51">
+        <v>198</v>
+      </c>
+      <c r="G51" t="s">
+        <v>149</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>0.81909251620506773</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>0.73469387755102045</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="3"/>
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="4"/>
+        <v>0.86842105263157898</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52">
+        <v>417</v>
+      </c>
+      <c r="C52">
+        <v>128</v>
+      </c>
+      <c r="D52">
+        <v>62</v>
+      </c>
+      <c r="E52">
+        <v>85</v>
+      </c>
+      <c r="G52" t="s">
+        <v>150</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>0.24572775486152032</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>0.32653061224489793</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="3"/>
+        <v>0.30392156862745096</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="4"/>
+        <v>0.37280701754385964</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53">
+        <v>246</v>
+      </c>
+      <c r="C53">
+        <v>77</v>
+      </c>
+      <c r="D53">
+        <v>39</v>
+      </c>
+      <c r="E53">
+        <v>59</v>
+      </c>
+      <c r="G53" t="s">
+        <v>151</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="1"/>
+        <v>0.14496169711255155</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="2"/>
+        <v>0.19642857142857142</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="3"/>
+        <v>0.19117647058823528</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="4"/>
+        <v>0.25877192982456143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54">
+        <v>173</v>
+      </c>
+      <c r="C54">
+        <v>19</v>
+      </c>
+      <c r="D54">
+        <v>28</v>
+      </c>
+      <c r="E54">
+        <v>50</v>
+      </c>
+      <c r="G54" t="s">
+        <v>152</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="1"/>
+        <v>0.10194460813199764</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="2"/>
+        <v>4.8469387755102039E-2</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="3"/>
+        <v>0.13725490196078433</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="4"/>
+        <v>0.21929824561403508</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55">
+        <v>456</v>
+      </c>
+      <c r="C55">
+        <v>139</v>
+      </c>
+      <c r="D55">
+        <v>70</v>
+      </c>
+      <c r="E55">
+        <v>74</v>
+      </c>
+      <c r="G55" t="s">
+        <v>153</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="1"/>
+        <v>0.26870948733058336</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="2"/>
+        <v>0.35459183673469385</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="3"/>
+        <v>0.34313725490196079</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="4"/>
+        <v>0.32456140350877194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56">
+        <v>343</v>
+      </c>
+      <c r="C56">
+        <v>75</v>
+      </c>
+      <c r="D56">
+        <v>95</v>
+      </c>
+      <c r="E56">
+        <v>101</v>
+      </c>
+      <c r="G56" t="s">
+        <v>154</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="1"/>
+        <v>0.20212139068945198</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="2"/>
+        <v>0.19132653061224489</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="3"/>
+        <v>0.46568627450980393</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="4"/>
+        <v>0.44298245614035087</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57">
+        <v>81</v>
+      </c>
+      <c r="C57">
+        <v>18</v>
+      </c>
+      <c r="D57">
+        <v>23</v>
+      </c>
+      <c r="E57">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s">
+        <v>155</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="1"/>
+        <v>4.7731290512669416E-2</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="2"/>
+        <v>4.5918367346938778E-2</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="3"/>
+        <v>0.11274509803921569</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="4"/>
+        <v>6.1403508771929821E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58">
+        <v>30</v>
+      </c>
+      <c r="C58">
+        <v>7</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>7</v>
+      </c>
+      <c r="G58" t="s">
+        <v>156</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="1"/>
+        <v>1.7678255745433118E-2</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="2"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="3"/>
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="4"/>
+        <v>3.0701754385964911E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59">
+        <v>177</v>
+      </c>
+      <c r="C59">
+        <v>32</v>
+      </c>
+      <c r="D59">
+        <v>32</v>
+      </c>
+      <c r="E59">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>157</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="1"/>
+        <v>0.10430170889805539</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="2"/>
+        <v>8.1632653061224483E-2</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="3"/>
+        <v>0.15686274509803921</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="4"/>
+        <v>9.2105263157894732E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60">
+        <v>70</v>
+      </c>
+      <c r="C60">
+        <v>14</v>
+      </c>
+      <c r="D60">
+        <v>20</v>
+      </c>
+      <c r="E60">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>158</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="1"/>
+        <v>4.1249263406010608E-2</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="2"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="3"/>
+        <v>9.8039215686274508E-2</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="4"/>
+        <v>9.2105263157894732E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>8</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>29</v>
+      </c>
+      <c r="G61" t="s">
+        <v>159</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="1"/>
+        <v>4.1249263406010605E-3</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="2"/>
+        <v>2.0408163265306121E-2</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="4"/>
+        <v>0.12719298245614036</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>160</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="G62" t="s">
+        <v>160</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="1"/>
+        <v>3.5356511490866236E-3</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="2"/>
+        <v>2.5510204081632651E-3</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="3"/>
+        <v>4.9019607843137254E-3</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="4"/>
+        <v>8.771929824561403E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>161</v>
+      </c>
+      <c r="B63">
+        <v>551</v>
+      </c>
+      <c r="C63">
+        <v>100</v>
+      </c>
+      <c r="D63">
+        <v>111</v>
+      </c>
+      <c r="E63">
+        <v>117</v>
+      </c>
+      <c r="G63" t="s">
+        <v>161</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="1"/>
+        <v>0.3246906305244549</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="2"/>
+        <v>0.25510204081632654</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="3"/>
+        <v>0.54411764705882348</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="4"/>
+        <v>0.51315789473684215</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>162</v>
+      </c>
+      <c r="B64">
+        <v>193</v>
+      </c>
+      <c r="C64">
+        <v>27</v>
+      </c>
+      <c r="D64">
+        <v>29</v>
+      </c>
+      <c r="E64">
+        <v>32</v>
+      </c>
+      <c r="G64" t="s">
+        <v>162</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="1"/>
+        <v>0.11373011196228638</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="2"/>
+        <v>6.8877551020408156E-2</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="3"/>
+        <v>0.14215686274509803</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="4"/>
+        <v>0.14035087719298245</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" t="s">
+        <v>163</v>
+      </c>
+      <c r="B65">
+        <v>99</v>
+      </c>
+      <c r="C65">
+        <v>14</v>
+      </c>
+      <c r="D65">
+        <v>24</v>
+      </c>
+      <c r="E65">
+        <v>24</v>
+      </c>
+      <c r="G65" t="s">
+        <v>163</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="1"/>
+        <v>5.8338243959929287E-2</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="2"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="3"/>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="4"/>
+        <v>0.10526315789473684</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" t="s">
+        <v>164</v>
+      </c>
+      <c r="B66">
+        <v>75</v>
+      </c>
+      <c r="C66">
+        <v>19</v>
+      </c>
+      <c r="D66">
+        <v>13</v>
+      </c>
+      <c r="E66">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>164</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="1"/>
+        <v>4.4195639363582791E-2</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="2"/>
+        <v>4.8469387755102039E-2</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="3"/>
+        <v>6.3725490196078427E-2</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="4"/>
+        <v>7.0175438596491224E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" t="s">
+        <v>165</v>
+      </c>
+      <c r="B67">
+        <v>332</v>
+      </c>
+      <c r="C67">
+        <v>122</v>
+      </c>
+      <c r="D67">
+        <v>47</v>
+      </c>
+      <c r="E67">
+        <v>51</v>
+      </c>
+      <c r="G67" t="s">
+        <v>165</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="1"/>
+        <v>0.19563936358279316</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="2"/>
+        <v>0.31122448979591838</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="3"/>
+        <v>0.23039215686274508</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="4"/>
+        <v>0.22368421052631579</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" t="s">
+        <v>166</v>
+      </c>
+      <c r="B68">
+        <v>199</v>
+      </c>
+      <c r="C68">
+        <v>41</v>
+      </c>
+      <c r="D68">
+        <v>43</v>
+      </c>
+      <c r="E68">
+        <v>37</v>
+      </c>
+      <c r="G68" t="s">
+        <v>166</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="1"/>
+        <v>0.11726576311137302</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="2"/>
+        <v>0.10459183673469388</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="3"/>
+        <v>0.2107843137254902</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="4"/>
+        <v>0.16228070175438597</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69">
+        <v>317</v>
+      </c>
+      <c r="C69">
+        <v>114</v>
+      </c>
+      <c r="D69">
+        <v>53</v>
+      </c>
+      <c r="E69">
+        <v>34</v>
+      </c>
+      <c r="G69" t="s">
+        <v>167</v>
+      </c>
+      <c r="H69">
+        <f t="shared" ref="H69:H132" si="5">B69/H$2</f>
+        <v>0.18680023571007662</v>
+      </c>
+      <c r="I69">
+        <f t="shared" ref="I69:I132" si="6">C69/I$2</f>
+        <v>0.29081632653061223</v>
+      </c>
+      <c r="J69">
+        <f t="shared" ref="J69:J132" si="7">D69/J$2</f>
+        <v>0.25980392156862747</v>
+      </c>
+      <c r="K69">
+        <f t="shared" ref="K69:K132" si="8">E69/K$2</f>
+        <v>0.14912280701754385</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
+        <v>168</v>
+      </c>
+      <c r="B70">
+        <v>51</v>
+      </c>
+      <c r="C70">
+        <v>19</v>
+      </c>
+      <c r="D70">
+        <v>9</v>
+      </c>
+      <c r="E70">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s">
+        <v>168</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="5"/>
+        <v>3.0053034767236298E-2</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="6"/>
+        <v>4.8469387755102039E-2</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="7"/>
+        <v>4.4117647058823532E-2</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="8"/>
+        <v>5.701754385964912E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
+        <v>169</v>
+      </c>
+      <c r="B71">
+        <v>400</v>
+      </c>
+      <c r="C71">
+        <v>92</v>
+      </c>
+      <c r="D71">
+        <v>67</v>
+      </c>
+      <c r="E71">
+        <v>69</v>
+      </c>
+      <c r="G71" t="s">
+        <v>169</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="5"/>
+        <v>0.23571007660577489</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="6"/>
+        <v>0.23469387755102042</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="7"/>
+        <v>0.32843137254901961</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="8"/>
+        <v>0.30263157894736842</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" t="s">
+        <v>170</v>
+      </c>
+      <c r="B72">
+        <v>164</v>
+      </c>
+      <c r="C72">
+        <v>54</v>
+      </c>
+      <c r="D72">
+        <v>43</v>
+      </c>
+      <c r="E72">
+        <v>34</v>
+      </c>
+      <c r="G72" t="s">
+        <v>170</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="5"/>
+        <v>9.6641131408367706E-2</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="6"/>
+        <v>0.13775510204081631</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="7"/>
+        <v>0.2107843137254902</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="8"/>
+        <v>0.14912280701754385</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" t="s">
+        <v>171</v>
+      </c>
+      <c r="B73">
+        <v>153</v>
+      </c>
+      <c r="C73">
+        <v>35</v>
+      </c>
+      <c r="D73">
+        <v>27</v>
+      </c>
+      <c r="E73">
+        <v>40</v>
+      </c>
+      <c r="G73" t="s">
+        <v>171</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="5"/>
+        <v>9.0159104301708898E-2</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="6"/>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="7"/>
+        <v>0.13235294117647059</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="8"/>
+        <v>0.17543859649122806</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" t="s">
+        <v>172</v>
+      </c>
+      <c r="B74">
+        <v>18</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="G74" t="s">
+        <v>172</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="5"/>
+        <v>1.060695344725987E-2</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="6"/>
+        <v>1.2755102040816327E-2</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="7"/>
+        <v>4.9019607843137254E-3</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="8"/>
+        <v>8.771929824561403E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
+        <v>173</v>
+      </c>
+      <c r="B75">
+        <v>466</v>
+      </c>
+      <c r="C75">
+        <v>112</v>
+      </c>
+      <c r="D75">
+        <v>67</v>
+      </c>
+      <c r="E75">
+        <v>91</v>
+      </c>
+      <c r="G75" t="s">
+        <v>173</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="5"/>
+        <v>0.27460223924572774</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="6"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="7"/>
+        <v>0.32843137254901961</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="8"/>
+        <v>0.39912280701754388</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
+        <v>174</v>
+      </c>
+      <c r="B76">
+        <v>27</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>8</v>
+      </c>
+      <c r="E76">
+        <v>7</v>
+      </c>
+      <c r="G76" t="s">
+        <v>174</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="5"/>
+        <v>1.5910430170889805E-2</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="6"/>
+        <v>5.1020408163265302E-3</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="7"/>
+        <v>3.9215686274509803E-2</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="8"/>
+        <v>3.0701754385964911E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
+        <v>175</v>
+      </c>
+      <c r="B77">
+        <v>107</v>
+      </c>
+      <c r="C77">
+        <v>7</v>
+      </c>
+      <c r="D77">
+        <v>39</v>
+      </c>
+      <c r="E77">
+        <v>35</v>
+      </c>
+      <c r="G77" t="s">
+        <v>175</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="5"/>
+        <v>6.3052445492044779E-2</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="6"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="7"/>
+        <v>0.19117647058823528</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="8"/>
+        <v>0.15350877192982457</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>176</v>
+      </c>
+      <c r="B78">
+        <v>157</v>
+      </c>
+      <c r="C78">
+        <v>47</v>
+      </c>
+      <c r="D78">
+        <v>29</v>
+      </c>
+      <c r="E78">
+        <v>31</v>
+      </c>
+      <c r="G78" t="s">
+        <v>176</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="5"/>
+        <v>9.2516205067766644E-2</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="6"/>
+        <v>0.11989795918367346</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="7"/>
+        <v>0.14215686274509803</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="8"/>
+        <v>0.13596491228070176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>177</v>
+      </c>
+      <c r="B79">
+        <v>837</v>
+      </c>
+      <c r="C79">
+        <v>199</v>
+      </c>
+      <c r="D79">
+        <v>115</v>
+      </c>
+      <c r="E79">
+        <v>131</v>
+      </c>
+      <c r="G79" t="s">
+        <v>177</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="5"/>
+        <v>0.493223335297584</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="6"/>
+        <v>0.50765306122448983</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="7"/>
+        <v>0.56372549019607843</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="8"/>
+        <v>0.57456140350877194</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
+        <v>178</v>
+      </c>
+      <c r="B80">
+        <v>516</v>
+      </c>
+      <c r="C80">
+        <v>121</v>
+      </c>
+      <c r="D80">
+        <v>52</v>
+      </c>
+      <c r="E80">
+        <v>59</v>
+      </c>
+      <c r="G80" t="s">
+        <v>178</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="5"/>
+        <v>0.30406599882144963</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="6"/>
+        <v>0.30867346938775508</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="7"/>
+        <v>0.25490196078431371</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="8"/>
+        <v>0.25877192982456143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" t="s">
+        <v>179</v>
+      </c>
+      <c r="B81">
+        <v>669</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>171</v>
+      </c>
+      <c r="E81">
+        <v>165</v>
+      </c>
+      <c r="G81" t="s">
+        <v>179</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="5"/>
+        <v>0.3942251031231585</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="7"/>
+        <v>0.83823529411764708</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="8"/>
+        <v>0.72368421052631582</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" t="s">
+        <v>180</v>
+      </c>
+      <c r="B82">
+        <v>1679</v>
+      </c>
+      <c r="C82">
+        <v>388</v>
+      </c>
+      <c r="D82">
+        <v>204</v>
+      </c>
+      <c r="E82">
+        <v>227</v>
+      </c>
+      <c r="G82" t="s">
+        <v>180</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="5"/>
+        <v>0.98939304655274007</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="6"/>
+        <v>0.98979591836734693</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="8"/>
+        <v>0.99561403508771928</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" t="s">
+        <v>181</v>
+      </c>
+      <c r="B83">
+        <v>552</v>
+      </c>
+      <c r="C83">
+        <v>56</v>
+      </c>
+      <c r="D83">
+        <v>102</v>
+      </c>
+      <c r="E83">
+        <v>121</v>
+      </c>
+      <c r="G83" t="s">
+        <v>181</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="5"/>
+        <v>0.32527990571596938</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="6"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="8"/>
+        <v>0.5307017543859649</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" t="s">
+        <v>182</v>
+      </c>
+      <c r="B84">
+        <v>60</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>23</v>
+      </c>
+      <c r="E84">
+        <v>20</v>
+      </c>
+      <c r="G84" t="s">
+        <v>182</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="5"/>
+        <v>3.5356511490866237E-2</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="6"/>
+        <v>2.5510204081632651E-3</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="7"/>
+        <v>0.11274509803921569</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="8"/>
+        <v>8.771929824561403E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" t="s">
+        <v>183</v>
+      </c>
+      <c r="B85">
+        <v>37</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>17</v>
+      </c>
+      <c r="E85">
+        <v>24</v>
+      </c>
+      <c r="G85" t="s">
+        <v>183</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="5"/>
+        <v>2.1803182086034177E-2</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="6"/>
+        <v>5.1020408163265302E-3</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="7"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="8"/>
+        <v>0.10526315789473684</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" t="s">
+        <v>184</v>
+      </c>
+      <c r="B86">
+        <v>357</v>
+      </c>
+      <c r="C86">
+        <v>80</v>
+      </c>
+      <c r="D86">
+        <v>77</v>
+      </c>
+      <c r="E86">
+        <v>77</v>
+      </c>
+      <c r="G86" t="s">
+        <v>184</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="5"/>
+        <v>0.2103712433706541</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="6"/>
+        <v>0.20408163265306123</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="7"/>
+        <v>0.37745098039215685</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="8"/>
+        <v>0.33771929824561403</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" t="s">
+        <v>185</v>
+      </c>
+      <c r="B87">
+        <v>263</v>
+      </c>
+      <c r="C87">
+        <v>53</v>
+      </c>
+      <c r="D87">
+        <v>66</v>
+      </c>
+      <c r="E87">
+        <v>63</v>
+      </c>
+      <c r="G87" t="s">
+        <v>185</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="5"/>
+        <v>0.15497937536829701</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="6"/>
+        <v>0.13520408163265307</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="7"/>
+        <v>0.3235294117647059</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="8"/>
+        <v>0.27631578947368424</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" t="s">
+        <v>186</v>
+      </c>
+      <c r="B88">
+        <v>289</v>
+      </c>
+      <c r="C88">
+        <v>47</v>
+      </c>
+      <c r="D88">
+        <v>66</v>
+      </c>
+      <c r="E88">
+        <v>65</v>
+      </c>
+      <c r="G88" t="s">
+        <v>186</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="5"/>
+        <v>0.17030053034767237</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="6"/>
+        <v>0.11989795918367346</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="7"/>
+        <v>0.3235294117647059</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="8"/>
+        <v>0.28508771929824561</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" t="s">
+        <v>187</v>
+      </c>
+      <c r="B89">
+        <v>69</v>
+      </c>
+      <c r="C89">
+        <v>19</v>
+      </c>
+      <c r="D89">
+        <v>13</v>
+      </c>
+      <c r="E89">
+        <v>21</v>
+      </c>
+      <c r="G89" t="s">
+        <v>187</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="5"/>
+        <v>4.0659988214496172E-2</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="6"/>
+        <v>4.8469387755102039E-2</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="7"/>
+        <v>6.3725490196078427E-2</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="8"/>
+        <v>9.2105263157894732E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" t="s">
+        <v>188</v>
+      </c>
+      <c r="B90">
+        <v>20</v>
+      </c>
+      <c r="C90">
+        <v>6</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>5</v>
+      </c>
+      <c r="G90" t="s">
+        <v>188</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="5"/>
+        <v>1.1785503830288745E-2</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="6"/>
+        <v>1.5306122448979591E-2</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="7"/>
+        <v>4.9019607843137254E-3</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="8"/>
+        <v>2.1929824561403508E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" t="s">
+        <v>189</v>
+      </c>
+      <c r="B91">
+        <v>524</v>
+      </c>
+      <c r="C91">
+        <v>142</v>
+      </c>
+      <c r="D91">
+        <v>62</v>
+      </c>
+      <c r="E91">
+        <v>56</v>
+      </c>
+      <c r="G91" t="s">
+        <v>189</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="5"/>
+        <v>0.30878020035356513</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="6"/>
+        <v>0.36224489795918369</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="7"/>
+        <v>0.30392156862745096</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="8"/>
+        <v>0.24561403508771928</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" t="s">
+        <v>190</v>
+      </c>
+      <c r="B92">
+        <v>300</v>
+      </c>
+      <c r="C92">
+        <v>75</v>
+      </c>
+      <c r="D92">
+        <v>58</v>
+      </c>
+      <c r="E92">
+        <v>55</v>
+      </c>
+      <c r="G92" t="s">
+        <v>190</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="5"/>
+        <v>0.17678255745433116</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="6"/>
+        <v>0.19132653061224489</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="7"/>
+        <v>0.28431372549019607</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="8"/>
+        <v>0.2412280701754386</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" t="s">
+        <v>191</v>
+      </c>
+      <c r="B93">
+        <v>317</v>
+      </c>
+      <c r="C93">
+        <v>59</v>
+      </c>
+      <c r="D93">
+        <v>85</v>
+      </c>
+      <c r="E93">
+        <v>89</v>
+      </c>
+      <c r="G93" t="s">
+        <v>191</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="5"/>
+        <v>0.18680023571007662</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="6"/>
+        <v>0.15051020408163265</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="7"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="8"/>
+        <v>0.39035087719298245</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" t="s">
+        <v>192</v>
+      </c>
+      <c r="B94">
+        <v>710</v>
+      </c>
+      <c r="C94">
+        <v>179</v>
+      </c>
+      <c r="D94">
+        <v>75</v>
+      </c>
+      <c r="E94">
+        <v>94</v>
+      </c>
+      <c r="G94" t="s">
+        <v>192</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="5"/>
+        <v>0.41838538597525043</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="6"/>
+        <v>0.45663265306122447</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="7"/>
+        <v>0.36764705882352944</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="8"/>
+        <v>0.41228070175438597</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" t="s">
+        <v>193</v>
+      </c>
+      <c r="B95">
+        <v>214</v>
+      </c>
+      <c r="C95">
+        <v>39</v>
+      </c>
+      <c r="D95">
+        <v>46</v>
+      </c>
+      <c r="E95">
+        <v>40</v>
+      </c>
+      <c r="G95" t="s">
+        <v>193</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="5"/>
+        <v>0.12610489098408956</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="6"/>
+        <v>9.9489795918367346E-2</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="7"/>
+        <v>0.22549019607843138</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="8"/>
+        <v>0.17543859649122806</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" t="s">
+        <v>194</v>
+      </c>
+      <c r="B96">
+        <v>11</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="G96" t="s">
+        <v>194</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="5"/>
+        <v>6.4820271066588098E-3</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="6"/>
+        <v>2.5510204081632651E-3</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="7"/>
+        <v>4.9019607843137254E-3</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="8"/>
+        <v>8.771929824561403E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97">
+        <v>639</v>
+      </c>
+      <c r="C97">
+        <v>160</v>
+      </c>
+      <c r="D97">
+        <v>87</v>
+      </c>
+      <c r="E97">
+        <v>100</v>
+      </c>
+      <c r="G97" t="s">
+        <v>195</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="5"/>
+        <v>0.37654684737772542</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="6"/>
+        <v>0.40816326530612246</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="7"/>
+        <v>0.4264705882352941</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="8"/>
+        <v>0.43859649122807015</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" t="s">
+        <v>196</v>
+      </c>
+      <c r="B98">
+        <v>559</v>
+      </c>
+      <c r="C98">
+        <v>149</v>
+      </c>
+      <c r="D98">
+        <v>88</v>
+      </c>
+      <c r="E98">
+        <v>90</v>
+      </c>
+      <c r="G98" t="s">
+        <v>196</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="5"/>
+        <v>0.3294048320565704</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="6"/>
+        <v>0.38010204081632654</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="7"/>
+        <v>0.43137254901960786</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="8"/>
+        <v>0.39473684210526316</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" t="s">
+        <v>197</v>
+      </c>
+      <c r="B99">
+        <v>173</v>
+      </c>
+      <c r="C99">
+        <v>41</v>
+      </c>
+      <c r="D99">
+        <v>27</v>
+      </c>
+      <c r="E99">
+        <v>27</v>
+      </c>
+      <c r="G99" t="s">
+        <v>197</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="5"/>
+        <v>0.10194460813199764</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="6"/>
+        <v>0.10459183673469388</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="7"/>
+        <v>0.13235294117647059</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="8"/>
+        <v>0.11842105263157894</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100">
+        <v>78</v>
+      </c>
+      <c r="C100">
+        <v>23</v>
+      </c>
+      <c r="D100">
+        <v>14</v>
+      </c>
+      <c r="E100">
+        <v>15</v>
+      </c>
+      <c r="G100" t="s">
+        <v>198</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="5"/>
+        <v>4.5963464938126107E-2</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="6"/>
+        <v>5.8673469387755105E-2</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="7"/>
+        <v>6.8627450980392163E-2</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="8"/>
+        <v>6.5789473684210523E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" t="s">
+        <v>199</v>
+      </c>
+      <c r="B101">
+        <v>157</v>
+      </c>
+      <c r="C101">
+        <v>38</v>
+      </c>
+      <c r="D101">
+        <v>21</v>
+      </c>
+      <c r="E101">
+        <v>28</v>
+      </c>
+      <c r="G101" t="s">
+        <v>199</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="5"/>
+        <v>9.2516205067766644E-2</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="6"/>
+        <v>9.6938775510204078E-2</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="7"/>
+        <v>0.10294117647058823</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="8"/>
+        <v>0.12280701754385964</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102">
+        <v>133</v>
+      </c>
+      <c r="C102">
+        <v>46</v>
+      </c>
+      <c r="D102">
+        <v>16</v>
+      </c>
+      <c r="E102">
+        <v>28</v>
+      </c>
+      <c r="G102" t="s">
+        <v>200</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="5"/>
+        <v>7.8373600471420155E-2</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="6"/>
+        <v>0.11734693877551021</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="7"/>
+        <v>7.8431372549019607E-2</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="8"/>
+        <v>0.12280701754385964</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" t="s">
+        <v>201</v>
+      </c>
+      <c r="B103">
+        <v>30</v>
+      </c>
+      <c r="C103">
+        <v>12</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+      <c r="G103" t="s">
+        <v>201</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="5"/>
+        <v>1.7678255745433118E-2</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="6"/>
+        <v>3.0612244897959183E-2</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="7"/>
+        <v>1.4705882352941176E-2</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="8"/>
+        <v>1.3157894736842105E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" t="s">
+        <v>202</v>
+      </c>
+      <c r="B104">
+        <v>54</v>
+      </c>
+      <c r="C104">
+        <v>13</v>
+      </c>
+      <c r="D104">
+        <v>8</v>
+      </c>
+      <c r="E104">
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>202</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="5"/>
+        <v>3.1820860341779611E-2</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="6"/>
+        <v>3.3163265306122451E-2</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="7"/>
+        <v>3.9215686274509803E-2</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="8"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" t="s">
+        <v>203</v>
+      </c>
+      <c r="B105">
+        <v>132</v>
+      </c>
+      <c r="C105">
+        <v>27</v>
+      </c>
+      <c r="D105">
+        <v>18</v>
+      </c>
+      <c r="E105">
+        <v>26</v>
+      </c>
+      <c r="G105" t="s">
+        <v>203</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="5"/>
+        <v>7.7784325279905711E-2</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="6"/>
+        <v>6.8877551020408156E-2</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="7"/>
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="8"/>
+        <v>0.11403508771929824</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" t="s">
+        <v>204</v>
+      </c>
+      <c r="B106">
+        <v>38</v>
+      </c>
+      <c r="C106">
+        <v>40</v>
+      </c>
+      <c r="D106">
+        <v>9</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="G106" t="s">
+        <v>204</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="5"/>
+        <v>2.2392457277548614E-2</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="6"/>
+        <v>0.10204081632653061</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="7"/>
+        <v>4.4117647058823532E-2</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="8"/>
+        <v>8.771929824561403E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" t="s">
+        <v>205</v>
+      </c>
+      <c r="B107">
+        <v>104</v>
+      </c>
+      <c r="C107">
+        <v>274</v>
+      </c>
+      <c r="D107">
+        <v>70</v>
+      </c>
+      <c r="E107">
+        <v>3</v>
+      </c>
+      <c r="G107" t="s">
+        <v>205</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="5"/>
+        <v>6.1284619917501476E-2</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="6"/>
+        <v>0.69897959183673475</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="7"/>
+        <v>0.34313725490196079</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="8"/>
+        <v>1.3157894736842105E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" t="s">
+        <v>206</v>
+      </c>
+      <c r="B108">
+        <v>342</v>
+      </c>
+      <c r="C108">
+        <v>24</v>
+      </c>
+      <c r="D108">
+        <v>31</v>
+      </c>
+      <c r="E108">
+        <v>37</v>
+      </c>
+      <c r="G108" t="s">
+        <v>206</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="5"/>
+        <v>0.20153211549793754</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="6"/>
+        <v>6.1224489795918366E-2</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="7"/>
+        <v>0.15196078431372548</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="8"/>
+        <v>0.16228070175438597</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" t="s">
+        <v>207</v>
+      </c>
+      <c r="B109">
+        <v>574</v>
+      </c>
+      <c r="C109">
+        <v>180</v>
+      </c>
+      <c r="D109">
+        <v>105</v>
+      </c>
+      <c r="E109">
+        <v>93</v>
+      </c>
+      <c r="G109" t="s">
+        <v>207</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="5"/>
+        <v>0.33824395992928696</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="6"/>
+        <v>0.45918367346938777</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="7"/>
+        <v>0.51470588235294112</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="8"/>
+        <v>0.40789473684210525</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" t="s">
+        <v>208</v>
+      </c>
+      <c r="B110">
+        <v>272</v>
+      </c>
+      <c r="C110">
+        <v>51</v>
+      </c>
+      <c r="D110">
+        <v>86</v>
+      </c>
+      <c r="E110">
+        <v>88</v>
+      </c>
+      <c r="G110" t="s">
+        <v>208</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="5"/>
+        <v>0.16028285209192694</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="6"/>
+        <v>0.13010204081632654</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="7"/>
+        <v>0.42156862745098039</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="8"/>
+        <v>0.38596491228070173</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" t="s">
+        <v>209</v>
+      </c>
+      <c r="B111">
+        <v>116</v>
+      </c>
+      <c r="C111">
+        <v>63</v>
+      </c>
+      <c r="D111">
+        <v>24</v>
+      </c>
+      <c r="E111">
+        <v>16</v>
+      </c>
+      <c r="G111" t="s">
+        <v>209</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="5"/>
+        <v>6.8355922215674714E-2</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="6"/>
+        <v>0.16071428571428573</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="7"/>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="8"/>
+        <v>7.0175438596491224E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" t="s">
+        <v>210</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="G112" t="s">
+        <v>210</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="5"/>
+        <v>1.7678255745433118E-3</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="6"/>
+        <v>5.1020408163265302E-3</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" t="s">
+        <v>211</v>
+      </c>
+      <c r="B113">
+        <v>23</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="G113" t="s">
+        <v>211</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="5"/>
+        <v>1.3553329404832056E-2</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="6"/>
+        <v>2.5510204081632651E-3</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="7"/>
+        <v>1.4705882352941176E-2</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="8"/>
+        <v>8.771929824561403E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" t="s">
+        <v>212</v>
+      </c>
+      <c r="B114">
+        <v>5</v>
+      </c>
+      <c r="C114">
+        <v>26</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="G114" t="s">
+        <v>212</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="5"/>
+        <v>2.9463759575721863E-3</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="6"/>
+        <v>6.6326530612244902E-2</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="7"/>
+        <v>9.8039215686274508E-3</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="8"/>
+        <v>4.3859649122807015E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" t="s">
+        <v>213</v>
+      </c>
+      <c r="B115">
+        <v>712</v>
+      </c>
+      <c r="C115">
+        <v>162</v>
+      </c>
+      <c r="D115">
+        <v>90</v>
+      </c>
+      <c r="E115">
+        <v>94</v>
+      </c>
+      <c r="G115" t="s">
+        <v>213</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="5"/>
+        <v>0.41956393635827932</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="6"/>
+        <v>0.41326530612244899</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="7"/>
+        <v>0.44117647058823528</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="8"/>
+        <v>0.41228070175438597</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" t="s">
+        <v>214</v>
+      </c>
+      <c r="B116">
+        <v>377</v>
+      </c>
+      <c r="C116">
+        <v>95</v>
+      </c>
+      <c r="D116">
+        <v>54</v>
+      </c>
+      <c r="E116">
+        <v>47</v>
+      </c>
+      <c r="G116" t="s">
+        <v>214</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="5"/>
+        <v>0.22215674720094283</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="6"/>
+        <v>0.2423469387755102</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="7"/>
+        <v>0.26470588235294118</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="8"/>
+        <v>0.20614035087719298</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" t="s">
+        <v>215</v>
+      </c>
+      <c r="B117">
+        <v>315</v>
+      </c>
+      <c r="C117">
+        <v>72</v>
+      </c>
+      <c r="D117">
+        <v>55</v>
+      </c>
+      <c r="E117">
+        <v>50</v>
+      </c>
+      <c r="G117" t="s">
+        <v>215</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="5"/>
+        <v>0.18562168532704773</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="6"/>
+        <v>0.18367346938775511</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="7"/>
+        <v>0.26960784313725489</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="8"/>
+        <v>0.21929824561403508</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" t="s">
+        <v>216</v>
+      </c>
+      <c r="B118">
+        <v>1146</v>
+      </c>
+      <c r="C118">
+        <v>277</v>
+      </c>
+      <c r="D118">
+        <v>152</v>
+      </c>
+      <c r="E118">
+        <v>166</v>
+      </c>
+      <c r="G118" t="s">
+        <v>216</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="5"/>
+        <v>0.6753093694755451</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="6"/>
+        <v>0.70663265306122447</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="7"/>
+        <v>0.74509803921568629</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="8"/>
+        <v>0.72807017543859653</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" t="s">
+        <v>217</v>
+      </c>
+      <c r="B119">
+        <v>1051</v>
+      </c>
+      <c r="C119">
+        <v>273</v>
+      </c>
+      <c r="D119">
+        <v>144</v>
+      </c>
+      <c r="E119">
+        <v>162</v>
+      </c>
+      <c r="G119" t="s">
+        <v>217</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="5"/>
+        <v>0.6193282262816735</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="6"/>
+        <v>0.6964285714285714</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="7"/>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="8"/>
+        <v>0.71052631578947367</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" t="s">
+        <v>218</v>
+      </c>
+      <c r="B120">
+        <v>877</v>
+      </c>
+      <c r="C120">
+        <v>205</v>
+      </c>
+      <c r="D120">
+        <v>123</v>
+      </c>
+      <c r="E120">
+        <v>124</v>
+      </c>
+      <c r="G120" t="s">
+        <v>218</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="5"/>
+        <v>0.51679434295816151</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="6"/>
+        <v>0.52295918367346939</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="7"/>
+        <v>0.6029411764705882</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="8"/>
+        <v>0.54385964912280704</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" t="s">
+        <v>219</v>
+      </c>
+      <c r="B121">
+        <v>586</v>
+      </c>
+      <c r="C121">
+        <v>160</v>
+      </c>
+      <c r="D121">
+        <v>93</v>
+      </c>
+      <c r="E121">
+        <v>75</v>
+      </c>
+      <c r="G121" t="s">
+        <v>219</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="5"/>
+        <v>0.34531526222746023</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="6"/>
+        <v>0.40816326530612246</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="7"/>
+        <v>0.45588235294117646</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="8"/>
+        <v>0.32894736842105265</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" t="s">
+        <v>220</v>
+      </c>
+      <c r="B122">
+        <v>138</v>
+      </c>
+      <c r="C122">
+        <v>29</v>
+      </c>
+      <c r="D122">
+        <v>23</v>
+      </c>
+      <c r="E122">
+        <v>27</v>
+      </c>
+      <c r="G122" t="s">
+        <v>220</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="5"/>
+        <v>8.1319976428992344E-2</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="6"/>
+        <v>7.3979591836734693E-2</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="7"/>
+        <v>0.11274509803921569</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="8"/>
+        <v>0.11842105263157894</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" t="s">
+        <v>221</v>
+      </c>
+      <c r="B123">
+        <v>178</v>
+      </c>
+      <c r="C123">
+        <v>37</v>
+      </c>
+      <c r="D123">
+        <v>43</v>
+      </c>
+      <c r="E123">
+        <v>38</v>
+      </c>
+      <c r="G123" t="s">
+        <v>221</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="5"/>
+        <v>0.10489098408956983</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="6"/>
+        <v>9.438775510204081E-2</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="7"/>
+        <v>0.2107843137254902</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" t="s">
+        <v>222</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="G124" t="s">
+        <v>222</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="5"/>
+        <v>1.1785503830288745E-3</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" t="s">
+        <v>223</v>
+      </c>
+      <c r="B125">
+        <v>15</v>
+      </c>
+      <c r="C125">
+        <v>9</v>
+      </c>
+      <c r="D125">
+        <v>3</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+      <c r="G125" t="s">
+        <v>223</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="5"/>
+        <v>8.8391278727165592E-3</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="6"/>
+        <v>2.2959183673469389E-2</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="7"/>
+        <v>1.4705882352941176E-2</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="8"/>
+        <v>8.771929824561403E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" t="s">
+        <v>224</v>
+      </c>
+      <c r="B126">
+        <v>64</v>
+      </c>
+      <c r="C126">
+        <v>28</v>
+      </c>
+      <c r="D126">
+        <v>11</v>
+      </c>
+      <c r="E126">
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>224</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="5"/>
+        <v>3.7713612256923983E-2</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="6"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="7"/>
+        <v>5.3921568627450983E-2</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="8"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" t="s">
+        <v>225</v>
+      </c>
+      <c r="B127">
+        <v>8</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>3</v>
+      </c>
+      <c r="G127" t="s">
+        <v>225</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="5"/>
+        <v>4.7142015321154978E-3</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="6"/>
+        <v>5.1020408163265302E-3</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="8"/>
+        <v>1.3157894736842105E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" t="s">
+        <v>226</v>
+      </c>
+      <c r="B128">
+        <v>16</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>4</v>
+      </c>
+      <c r="G128" t="s">
+        <v>226</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="5"/>
+        <v>9.4284030642309957E-3</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="6"/>
+        <v>5.1020408163265302E-3</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="7"/>
+        <v>4.9019607843137254E-3</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="8"/>
+        <v>1.7543859649122806E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" t="s">
+        <v>227</v>
+      </c>
+      <c r="B129">
+        <v>19</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>9</v>
+      </c>
+      <c r="G129" t="s">
+        <v>227</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="5"/>
+        <v>1.1196228638774307E-2</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="6"/>
+        <v>7.6530612244897957E-3</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="7"/>
+        <v>4.9019607843137254E-3</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="8"/>
+        <v>3.9473684210526314E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" t="s">
+        <v>228</v>
+      </c>
+      <c r="B130">
+        <v>12</v>
+      </c>
+      <c r="C130">
+        <v>4</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>2</v>
+      </c>
+      <c r="G130" t="s">
+        <v>228</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="5"/>
+        <v>7.0713022981732472E-3</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="6"/>
+        <v>1.020408163265306E-2</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="7"/>
+        <v>4.9019607843137254E-3</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="8"/>
+        <v>8.771929824561403E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" t="s">
+        <v>229</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>2</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="G131" t="s">
+        <v>229</v>
+      </c>
+      <c r="H131">
+        <f t="shared" si="5"/>
+        <v>5.8927519151443723E-4</v>
+      </c>
+      <c r="I131">
+        <f t="shared" si="6"/>
+        <v>5.1020408163265302E-3</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="7"/>
+        <v>4.9019607843137254E-3</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" t="s">
+        <v>230</v>
+      </c>
+      <c r="B132">
+        <v>82</v>
+      </c>
+      <c r="C132">
+        <v>20</v>
+      </c>
+      <c r="D132">
+        <v>20</v>
+      </c>
+      <c r="E132">
+        <v>17</v>
+      </c>
+      <c r="G132" t="s">
+        <v>230</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="5"/>
+        <v>4.8320565704183853E-2</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="6"/>
+        <v>5.1020408163265307E-2</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="7"/>
+        <v>9.8039215686274508E-2</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="8"/>
+        <v>7.4561403508771926E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" t="s">
+        <v>231</v>
+      </c>
+      <c r="B133">
+        <v>5</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="G133" t="s">
+        <v>231</v>
+      </c>
+      <c r="H133">
+        <f t="shared" ref="H133:H196" si="9">B133/H$2</f>
+        <v>2.9463759575721863E-3</v>
+      </c>
+      <c r="I133">
+        <f t="shared" ref="I133:I196" si="10">C133/I$2</f>
+        <v>2.5510204081632651E-3</v>
+      </c>
+      <c r="J133">
+        <f t="shared" ref="J133:J196" si="11">D133/J$2</f>
+        <v>4.9019607843137254E-3</v>
+      </c>
+      <c r="K133">
+        <f t="shared" ref="K133:K196" si="12">E133/K$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" t="s">
+        <v>232</v>
+      </c>
+      <c r="B134">
+        <v>6</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="G134" t="s">
+        <v>232</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="9"/>
+        <v>3.5356511490866236E-3</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="10"/>
+        <v>5.1020408163265302E-3</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" t="s">
+        <v>233</v>
+      </c>
+      <c r="B135">
+        <v>12</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="G135" t="s">
+        <v>233</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="9"/>
+        <v>7.0713022981732472E-3</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="10"/>
+        <v>5.1020408163265302E-3</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="11"/>
+        <v>4.9019607843137254E-3</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="12"/>
+        <v>4.3859649122807015E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" t="s">
+        <v>234</v>
+      </c>
+      <c r="B136">
+        <v>10</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="G136" t="s">
+        <v>234</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="9"/>
+        <v>5.8927519151443725E-3</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="10"/>
+        <v>7.6530612244897957E-3</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="11"/>
+        <v>4.9019607843137254E-3</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="12"/>
+        <v>4.3859649122807015E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" t="s">
+        <v>235</v>
+      </c>
+      <c r="B137">
+        <v>30</v>
+      </c>
+      <c r="C137">
+        <v>3</v>
+      </c>
+      <c r="D137">
+        <v>4</v>
+      </c>
+      <c r="E137">
+        <v>5</v>
+      </c>
+      <c r="G137" t="s">
+        <v>235</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="9"/>
+        <v>1.7678255745433118E-2</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="10"/>
+        <v>7.6530612244897957E-3</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="11"/>
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="12"/>
+        <v>2.1929824561403508E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" t="s">
+        <v>236</v>
+      </c>
+      <c r="B138">
+        <v>3</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="G138" t="s">
+        <v>236</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="9"/>
+        <v>1.7678255745433118E-3</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="10"/>
+        <v>5.1020408163265302E-3</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" t="s">
+        <v>237</v>
+      </c>
+      <c r="B139">
+        <v>4</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="G139" t="s">
+        <v>237</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="9"/>
+        <v>2.3571007660577489E-3</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="10"/>
+        <v>2.5510204081632651E-3</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="11"/>
+        <v>9.8039215686274508E-3</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="12"/>
+        <v>4.3859649122807015E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" t="s">
+        <v>238</v>
+      </c>
+      <c r="B140">
+        <v>9</v>
+      </c>
+      <c r="C140">
+        <v>4</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="G140" t="s">
+        <v>238</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="9"/>
+        <v>5.3034767236299352E-3</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="10"/>
+        <v>1.020408163265306E-2</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="11"/>
+        <v>1.4705882352941176E-2</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" t="s">
+        <v>239</v>
+      </c>
+      <c r="B141">
+        <v>522</v>
+      </c>
+      <c r="C141">
+        <v>149</v>
+      </c>
+      <c r="D141">
+        <v>85</v>
+      </c>
+      <c r="E141">
+        <v>84</v>
+      </c>
+      <c r="G141" t="s">
+        <v>239</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="9"/>
+        <v>0.30760164997053624</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="10"/>
+        <v>0.38010204081632654</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="11"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="12"/>
+        <v>0.36842105263157893</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" t="s">
+        <v>240</v>
+      </c>
+      <c r="B142">
+        <v>955</v>
+      </c>
+      <c r="C142">
+        <v>257</v>
+      </c>
+      <c r="D142">
+        <v>153</v>
+      </c>
+      <c r="E142">
+        <v>155</v>
+      </c>
+      <c r="G142" t="s">
+        <v>240</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="9"/>
+        <v>0.5627578078962876</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="10"/>
+        <v>0.65561224489795922</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="11"/>
+        <v>0.75</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="12"/>
+        <v>0.67982456140350878</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" t="s">
+        <v>241</v>
+      </c>
+      <c r="B143">
+        <v>1082</v>
+      </c>
+      <c r="C143">
+        <v>244</v>
+      </c>
+      <c r="D143">
+        <v>158</v>
+      </c>
+      <c r="E143">
+        <v>168</v>
+      </c>
+      <c r="G143" t="s">
+        <v>241</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="9"/>
+        <v>0.63759575721862105</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="10"/>
+        <v>0.62244897959183676</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="11"/>
+        <v>0.77450980392156865</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="12"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" t="s">
+        <v>242</v>
+      </c>
+      <c r="B144">
+        <v>138</v>
+      </c>
+      <c r="C144">
+        <v>47</v>
+      </c>
+      <c r="D144">
+        <v>26</v>
+      </c>
+      <c r="E144">
+        <v>36</v>
+      </c>
+      <c r="G144" t="s">
+        <v>242</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="9"/>
+        <v>8.1319976428992344E-2</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="10"/>
+        <v>0.11989795918367346</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="11"/>
+        <v>0.12745098039215685</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="12"/>
+        <v>0.15789473684210525</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" t="s">
+        <v>243</v>
+      </c>
+      <c r="B145">
+        <v>544</v>
+      </c>
+      <c r="C145">
+        <v>99</v>
+      </c>
+      <c r="D145">
+        <v>82</v>
+      </c>
+      <c r="E145">
+        <v>100</v>
+      </c>
+      <c r="G145" t="s">
+        <v>243</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="9"/>
+        <v>0.32056570418385388</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="10"/>
+        <v>0.25255102040816324</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="11"/>
+        <v>0.40196078431372551</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="12"/>
+        <v>0.43859649122807015</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" t="s">
+        <v>244</v>
+      </c>
+      <c r="B146">
+        <v>397</v>
+      </c>
+      <c r="C146">
+        <v>68</v>
+      </c>
+      <c r="D146">
+        <v>58</v>
+      </c>
+      <c r="E146">
+        <v>65</v>
+      </c>
+      <c r="G146" t="s">
+        <v>244</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="9"/>
+        <v>0.23394225103123159</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="10"/>
+        <v>0.17346938775510204</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="11"/>
+        <v>0.28431372549019607</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="12"/>
+        <v>0.28508771929824561</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" t="s">
+        <v>245</v>
+      </c>
+      <c r="B147">
+        <v>155</v>
+      </c>
+      <c r="C147">
+        <v>67</v>
+      </c>
+      <c r="D147">
+        <v>31</v>
+      </c>
+      <c r="E147">
+        <v>23</v>
+      </c>
+      <c r="G147" t="s">
+        <v>245</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="9"/>
+        <v>9.1337654684737771E-2</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="10"/>
+        <v>0.17091836734693877</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="11"/>
+        <v>0.15196078431372548</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="12"/>
+        <v>0.10087719298245613</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" t="s">
+        <v>246</v>
+      </c>
+      <c r="B148">
+        <v>461</v>
+      </c>
+      <c r="C148">
+        <v>121</v>
+      </c>
+      <c r="D148">
+        <v>78</v>
+      </c>
+      <c r="E148">
+        <v>84</v>
+      </c>
+      <c r="G148" t="s">
+        <v>246</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="9"/>
+        <v>0.27165586328815555</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="10"/>
+        <v>0.30867346938775508</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="11"/>
+        <v>0.38235294117647056</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="12"/>
+        <v>0.36842105263157893</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" t="s">
+        <v>247</v>
+      </c>
+      <c r="B149">
+        <v>587</v>
+      </c>
+      <c r="C149">
+        <v>140</v>
+      </c>
+      <c r="D149">
+        <v>117</v>
+      </c>
+      <c r="E149">
+        <v>114</v>
+      </c>
+      <c r="G149" t="s">
+        <v>247</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="9"/>
+        <v>0.34590453741897464</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="10"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="11"/>
+        <v>0.57352941176470584</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" t="s">
+        <v>248</v>
+      </c>
+      <c r="B150">
+        <v>485</v>
+      </c>
+      <c r="C150">
+        <v>162</v>
+      </c>
+      <c r="D150">
+        <v>92</v>
+      </c>
+      <c r="E150">
+        <v>73</v>
+      </c>
+      <c r="G150" t="s">
+        <v>248</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="9"/>
+        <v>0.28579846788450208</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="10"/>
+        <v>0.41326530612244899</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="11"/>
+        <v>0.45098039215686275</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="12"/>
+        <v>0.32017543859649122</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" t="s">
+        <v>249</v>
+      </c>
+      <c r="B151">
+        <v>211</v>
+      </c>
+      <c r="C151">
+        <v>59</v>
+      </c>
+      <c r="D151">
+        <v>42</v>
+      </c>
+      <c r="E151">
+        <v>41</v>
+      </c>
+      <c r="G151" t="s">
+        <v>249</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="9"/>
+        <v>0.12433706540954625</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="10"/>
+        <v>0.15051020408163265</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="11"/>
+        <v>0.20588235294117646</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="12"/>
+        <v>0.17982456140350878</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" t="s">
+        <v>250</v>
+      </c>
+      <c r="B152">
+        <v>149</v>
+      </c>
+      <c r="C152">
+        <v>31</v>
+      </c>
+      <c r="D152">
+        <v>32</v>
+      </c>
+      <c r="E152">
+        <v>35</v>
+      </c>
+      <c r="G152" t="s">
+        <v>250</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="9"/>
+        <v>8.7802003535651152E-2</v>
+      </c>
+      <c r="I152">
+        <f t="shared" si="10"/>
+        <v>7.9081632653061229E-2</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="11"/>
+        <v>0.15686274509803921</v>
+      </c>
+      <c r="K152">
+        <f t="shared" si="12"/>
+        <v>0.15350877192982457</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" t="s">
+        <v>251</v>
+      </c>
+      <c r="B153">
+        <v>5</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>4</v>
+      </c>
+      <c r="G153" t="s">
+        <v>251</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="9"/>
+        <v>2.9463759575721863E-3</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="10"/>
+        <v>5.1020408163265302E-3</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="11"/>
+        <v>4.9019607843137254E-3</v>
+      </c>
+      <c r="K153">
+        <f t="shared" si="12"/>
+        <v>1.7543859649122806E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" t="s">
+        <v>252</v>
+      </c>
+      <c r="B154">
+        <v>404</v>
+      </c>
+      <c r="C154">
+        <v>113</v>
+      </c>
+      <c r="D154">
+        <v>20</v>
+      </c>
+      <c r="E154">
+        <v>58</v>
+      </c>
+      <c r="G154" t="s">
+        <v>252</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="9"/>
+        <v>0.23806717737183264</v>
+      </c>
+      <c r="I154">
+        <f t="shared" si="10"/>
+        <v>0.28826530612244899</v>
+      </c>
+      <c r="J154">
+        <f t="shared" si="11"/>
+        <v>9.8039215686274508E-2</v>
+      </c>
+      <c r="K154">
+        <f t="shared" si="12"/>
+        <v>0.25438596491228072</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" t="s">
+        <v>253</v>
+      </c>
+      <c r="B155">
+        <v>66</v>
+      </c>
+      <c r="C155">
+        <v>27</v>
+      </c>
+      <c r="D155">
+        <v>7</v>
+      </c>
+      <c r="E155">
+        <v>7</v>
+      </c>
+      <c r="G155" t="s">
+        <v>253</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="9"/>
+        <v>3.8892162639952856E-2</v>
+      </c>
+      <c r="I155">
+        <f t="shared" si="10"/>
+        <v>6.8877551020408156E-2</v>
+      </c>
+      <c r="J155">
+        <f t="shared" si="11"/>
+        <v>3.4313725490196081E-2</v>
+      </c>
+      <c r="K155">
+        <f t="shared" si="12"/>
+        <v>3.0701754385964911E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" t="s">
+        <v>254</v>
+      </c>
+      <c r="B156">
+        <v>13</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="G156" t="s">
+        <v>254</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="9"/>
+        <v>7.6605774896876845E-3</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="10"/>
+        <v>2.5510204081632651E-3</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <f t="shared" si="12"/>
+        <v>4.3859649122807015E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" t="s">
+        <v>255</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="G157" t="s">
+        <v>255</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="9"/>
+        <v>1.1785503830288745E-3</v>
+      </c>
+      <c r="I157">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" t="s">
+        <v>256</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="G158" t="s">
+        <v>256</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <f t="shared" si="10"/>
+        <v>2.5510204081632651E-3</v>
+      </c>
+      <c r="J158">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" t="s">
+        <v>257</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>2</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="G159" t="s">
+        <v>257</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <f t="shared" si="10"/>
+        <v>5.1020408163265302E-3</v>
+      </c>
+      <c r="J159">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" t="s">
+        <v>258</v>
+      </c>
+      <c r="B160">
+        <v>3</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="G160" t="s">
+        <v>258</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="9"/>
+        <v>1.7678255745433118E-3</v>
+      </c>
+      <c r="I160">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" t="s">
+        <v>259</v>
+      </c>
+      <c r="B161">
+        <v>95</v>
+      </c>
+      <c r="C161">
+        <v>37</v>
+      </c>
+      <c r="D161">
+        <v>24</v>
+      </c>
+      <c r="E161">
+        <v>12</v>
+      </c>
+      <c r="G161" t="s">
+        <v>259</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="9"/>
+        <v>5.5981143193871541E-2</v>
+      </c>
+      <c r="I161">
+        <f t="shared" si="10"/>
+        <v>9.438775510204081E-2</v>
+      </c>
+      <c r="J161">
+        <f t="shared" si="11"/>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="K161">
+        <f t="shared" si="12"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" t="s">
+        <v>260</v>
+      </c>
+      <c r="B162">
+        <v>103</v>
+      </c>
+      <c r="C162">
+        <v>20</v>
+      </c>
+      <c r="D162">
+        <v>18</v>
+      </c>
+      <c r="E162">
+        <v>12</v>
+      </c>
+      <c r="G162" t="s">
+        <v>260</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="9"/>
+        <v>6.0695344725987033E-2</v>
+      </c>
+      <c r="I162">
+        <f t="shared" si="10"/>
+        <v>5.1020408163265307E-2</v>
+      </c>
+      <c r="J162">
+        <f t="shared" si="11"/>
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="K162">
+        <f t="shared" si="12"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" t="s">
+        <v>261</v>
+      </c>
+      <c r="B163">
+        <v>43</v>
+      </c>
+      <c r="C163">
+        <v>27</v>
+      </c>
+      <c r="D163">
+        <v>4</v>
+      </c>
+      <c r="E163">
+        <v>3</v>
+      </c>
+      <c r="G163" t="s">
+        <v>261</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="9"/>
+        <v>2.5338833235120803E-2</v>
+      </c>
+      <c r="I163">
+        <f t="shared" si="10"/>
+        <v>6.8877551020408156E-2</v>
+      </c>
+      <c r="J163">
+        <f t="shared" si="11"/>
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="K163">
+        <f t="shared" si="12"/>
+        <v>1.3157894736842105E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" t="s">
+        <v>262</v>
+      </c>
+      <c r="B164">
+        <v>2</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="G164" t="s">
+        <v>262</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="9"/>
+        <v>1.1785503830288745E-3</v>
+      </c>
+      <c r="I164">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165" t="s">
+        <v>263</v>
+      </c>
+      <c r="B165">
+        <v>7</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="G165" t="s">
+        <v>263</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="9"/>
+        <v>4.1249263406010605E-3</v>
+      </c>
+      <c r="I165">
+        <f t="shared" si="10"/>
+        <v>2.5510204081632651E-3</v>
+      </c>
+      <c r="J165">
+        <f t="shared" si="11"/>
+        <v>4.9019607843137254E-3</v>
+      </c>
+      <c r="K165">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" t="s">
+        <v>264</v>
+      </c>
+      <c r="B166">
+        <v>4</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="G166" t="s">
+        <v>264</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="9"/>
+        <v>2.3571007660577489E-3</v>
+      </c>
+      <c r="I166">
+        <f t="shared" si="10"/>
+        <v>7.6530612244897957E-3</v>
+      </c>
+      <c r="J166">
+        <f t="shared" si="11"/>
+        <v>4.9019607843137254E-3</v>
+      </c>
+      <c r="K166">
+        <f t="shared" si="12"/>
+        <v>4.3859649122807015E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167" t="s">
+        <v>265</v>
+      </c>
+      <c r="B167">
+        <v>3</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="G167" t="s">
+        <v>265</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="9"/>
+        <v>1.7678255745433118E-3</v>
+      </c>
+      <c r="I167">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" t="s">
+        <v>266</v>
+      </c>
+      <c r="B168" t="s">
+        <v>267</v>
+      </c>
+      <c r="C168" t="s">
+        <v>267</v>
+      </c>
+      <c r="D168" t="s">
+        <v>267</v>
+      </c>
+      <c r="E168" t="s">
+        <v>267</v>
+      </c>
+      <c r="G168" t="s">
+        <v>266</v>
+      </c>
+      <c r="H168" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I168" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J168" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K168" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169" t="s">
+        <v>268</v>
+      </c>
+      <c r="B169">
+        <v>3</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="G169" t="s">
+        <v>268</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="9"/>
+        <v>1.7678255745433118E-3</v>
+      </c>
+      <c r="I169">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170" t="s">
+        <v>269</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="G170" t="s">
+        <v>269</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <f t="shared" si="10"/>
+        <v>2.5510204081632651E-3</v>
+      </c>
+      <c r="J170">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171" t="s">
+        <v>270</v>
+      </c>
+      <c r="B171">
+        <v>3</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="G171" t="s">
+        <v>270</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="9"/>
+        <v>1.7678255745433118E-3</v>
+      </c>
+      <c r="I171">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <f t="shared" si="11"/>
+        <v>4.9019607843137254E-3</v>
+      </c>
+      <c r="K171">
+        <f t="shared" si="12"/>
+        <v>4.3859649122807015E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172" t="s">
+        <v>271</v>
+      </c>
+      <c r="B172">
+        <v>2</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="G172" t="s">
+        <v>271</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="9"/>
+        <v>1.1785503830288745E-3</v>
+      </c>
+      <c r="I172">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173" t="s">
+        <v>272</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="G173" t="s">
+        <v>272</v>
+      </c>
+      <c r="H173">
+        <f t="shared" si="9"/>
+        <v>5.8927519151443723E-4</v>
+      </c>
+      <c r="I173">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174" t="s">
+        <v>273</v>
+      </c>
+      <c r="B174">
+        <v>2</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="G174" t="s">
+        <v>273</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="9"/>
+        <v>1.1785503830288745E-3</v>
+      </c>
+      <c r="I174">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <f t="shared" si="12"/>
+        <v>4.3859649122807015E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175" t="s">
+        <v>274</v>
+      </c>
+      <c r="B175">
+        <v>8</v>
+      </c>
+      <c r="C175">
+        <v>2</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="G175" t="s">
+        <v>274</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="9"/>
+        <v>4.7142015321154978E-3</v>
+      </c>
+      <c r="I175">
+        <f t="shared" si="10"/>
+        <v>5.1020408163265302E-3</v>
+      </c>
+      <c r="J175">
+        <f t="shared" si="11"/>
+        <v>4.9019607843137254E-3</v>
+      </c>
+      <c r="K175">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176" t="s">
+        <v>275</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="G176" t="s">
+        <v>275</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="9"/>
+        <v>5.8927519151443723E-4</v>
+      </c>
+      <c r="I176">
+        <f t="shared" si="10"/>
+        <v>2.5510204081632651E-3</v>
+      </c>
+      <c r="J176">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <f t="shared" si="12"/>
+        <v>4.3859649122807015E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177" t="s">
+        <v>276</v>
+      </c>
+      <c r="B177">
+        <v>69</v>
+      </c>
+      <c r="C177">
+        <v>14</v>
+      </c>
+      <c r="D177">
+        <v>5</v>
+      </c>
+      <c r="E177">
+        <v>6</v>
+      </c>
+      <c r="G177" t="s">
+        <v>276</v>
+      </c>
+      <c r="H177">
+        <f t="shared" si="9"/>
+        <v>4.0659988214496172E-2</v>
+      </c>
+      <c r="I177">
+        <f t="shared" si="10"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="J177">
+        <f t="shared" si="11"/>
+        <v>2.4509803921568627E-2</v>
+      </c>
+      <c r="K177">
+        <f t="shared" si="12"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178" t="s">
+        <v>277</v>
+      </c>
+      <c r="B178">
+        <v>109</v>
+      </c>
+      <c r="C178">
+        <v>38</v>
+      </c>
+      <c r="D178">
+        <v>18</v>
+      </c>
+      <c r="E178">
+        <v>26</v>
+      </c>
+      <c r="G178" t="s">
+        <v>277</v>
+      </c>
+      <c r="H178">
+        <f t="shared" si="9"/>
+        <v>6.4230995875073665E-2</v>
+      </c>
+      <c r="I178">
+        <f t="shared" si="10"/>
+        <v>9.6938775510204078E-2</v>
+      </c>
+      <c r="J178">
+        <f t="shared" si="11"/>
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="K178">
+        <f t="shared" si="12"/>
+        <v>0.11403508771929824</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179" t="s">
+        <v>278</v>
+      </c>
+      <c r="B179">
+        <v>208</v>
+      </c>
+      <c r="C179">
+        <v>56</v>
+      </c>
+      <c r="D179">
+        <v>29</v>
+      </c>
+      <c r="E179">
+        <v>32</v>
+      </c>
+      <c r="G179" t="s">
+        <v>278</v>
+      </c>
+      <c r="H179">
+        <f t="shared" si="9"/>
+        <v>0.12256923983500295</v>
+      </c>
+      <c r="I179">
+        <f t="shared" si="10"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="J179">
+        <f t="shared" si="11"/>
+        <v>0.14215686274509803</v>
+      </c>
+      <c r="K179">
+        <f t="shared" si="12"/>
+        <v>0.14035087719298245</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180" t="s">
+        <v>279</v>
+      </c>
+      <c r="B180">
+        <v>83</v>
+      </c>
+      <c r="C180">
+        <v>19</v>
+      </c>
+      <c r="D180">
+        <v>27</v>
+      </c>
+      <c r="E180">
+        <v>33</v>
+      </c>
+      <c r="G180" t="s">
+        <v>279</v>
+      </c>
+      <c r="H180">
+        <f t="shared" si="9"/>
+        <v>4.8909840895698289E-2</v>
+      </c>
+      <c r="I180">
+        <f t="shared" si="10"/>
+        <v>4.8469387755102039E-2</v>
+      </c>
+      <c r="J180">
+        <f t="shared" si="11"/>
+        <v>0.13235294117647059</v>
+      </c>
+      <c r="K180">
+        <f t="shared" si="12"/>
+        <v>0.14473684210526316</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181" t="s">
+        <v>280</v>
+      </c>
+      <c r="B181">
+        <v>37</v>
+      </c>
+      <c r="C181">
+        <v>17</v>
+      </c>
+      <c r="D181">
+        <v>19</v>
+      </c>
+      <c r="E181">
+        <v>11</v>
+      </c>
+      <c r="G181" t="s">
+        <v>280</v>
+      </c>
+      <c r="H181">
+        <f t="shared" si="9"/>
+        <v>2.1803182086034177E-2</v>
+      </c>
+      <c r="I181">
+        <f t="shared" si="10"/>
+        <v>4.336734693877551E-2</v>
+      </c>
+      <c r="J181">
+        <f t="shared" si="11"/>
+        <v>9.3137254901960786E-2</v>
+      </c>
+      <c r="K181">
+        <f t="shared" si="12"/>
+        <v>4.8245614035087717E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182" t="s">
+        <v>281</v>
+      </c>
+      <c r="B182">
+        <v>189</v>
+      </c>
+      <c r="C182">
+        <v>30</v>
+      </c>
+      <c r="D182">
+        <v>56</v>
+      </c>
+      <c r="E182">
+        <v>54</v>
+      </c>
+      <c r="G182" t="s">
+        <v>281</v>
+      </c>
+      <c r="H182">
+        <f t="shared" si="9"/>
+        <v>0.11137301119622864</v>
+      </c>
+      <c r="I182">
+        <f t="shared" si="10"/>
+        <v>7.6530612244897961E-2</v>
+      </c>
+      <c r="J182">
+        <f t="shared" si="11"/>
+        <v>0.27450980392156865</v>
+      </c>
+      <c r="K182">
+        <f t="shared" si="12"/>
+        <v>0.23684210526315788</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183" t="s">
+        <v>282</v>
+      </c>
+      <c r="B183">
+        <v>194</v>
+      </c>
+      <c r="C183">
+        <v>46</v>
+      </c>
+      <c r="D183">
+        <v>46</v>
+      </c>
+      <c r="E183">
+        <v>32</v>
+      </c>
+      <c r="G183" t="s">
+        <v>282</v>
+      </c>
+      <c r="H183">
+        <f t="shared" si="9"/>
+        <v>0.11431938715380083</v>
+      </c>
+      <c r="I183">
+        <f t="shared" si="10"/>
+        <v>0.11734693877551021</v>
+      </c>
+      <c r="J183">
+        <f t="shared" si="11"/>
+        <v>0.22549019607843138</v>
+      </c>
+      <c r="K183">
+        <f t="shared" si="12"/>
+        <v>0.14035087719298245</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184" t="s">
+        <v>283</v>
+      </c>
+      <c r="B184">
+        <v>147</v>
+      </c>
+      <c r="C184">
+        <v>46</v>
+      </c>
+      <c r="D184">
+        <v>36</v>
+      </c>
+      <c r="E184">
+        <v>38</v>
+      </c>
+      <c r="G184" t="s">
+        <v>283</v>
+      </c>
+      <c r="H184">
+        <f t="shared" si="9"/>
+        <v>8.6623453152622279E-2</v>
+      </c>
+      <c r="I184">
+        <f t="shared" si="10"/>
+        <v>0.11734693877551021</v>
+      </c>
+      <c r="J184">
+        <f t="shared" si="11"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="K184">
+        <f t="shared" si="12"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185" t="s">
+        <v>284</v>
+      </c>
+      <c r="B185">
+        <v>299</v>
+      </c>
+      <c r="C185">
+        <v>77</v>
+      </c>
+      <c r="D185">
+        <v>44</v>
+      </c>
+      <c r="E185">
+        <v>51</v>
+      </c>
+      <c r="G185" t="s">
+        <v>284</v>
+      </c>
+      <c r="H185">
+        <f t="shared" si="9"/>
+        <v>0.17619328226281675</v>
+      </c>
+      <c r="I185">
+        <f t="shared" si="10"/>
+        <v>0.19642857142857142</v>
+      </c>
+      <c r="J185">
+        <f t="shared" si="11"/>
+        <v>0.21568627450980393</v>
+      </c>
+      <c r="K185">
+        <f t="shared" si="12"/>
+        <v>0.22368421052631579</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186" t="s">
+        <v>285</v>
+      </c>
+      <c r="B186">
+        <v>129</v>
+      </c>
+      <c r="C186">
+        <v>32</v>
+      </c>
+      <c r="D186">
+        <v>40</v>
+      </c>
+      <c r="E186">
+        <v>28</v>
+      </c>
+      <c r="G186" t="s">
+        <v>285</v>
+      </c>
+      <c r="H186">
+        <f t="shared" si="9"/>
+        <v>7.6016499705362409E-2</v>
+      </c>
+      <c r="I186">
+        <f t="shared" si="10"/>
+        <v>8.1632653061224483E-2</v>
+      </c>
+      <c r="J186">
+        <f t="shared" si="11"/>
+        <v>0.19607843137254902</v>
+      </c>
+      <c r="K186">
+        <f t="shared" si="12"/>
+        <v>0.12280701754385964</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187" t="s">
+        <v>286</v>
+      </c>
+      <c r="B187">
+        <v>12</v>
+      </c>
+      <c r="C187">
+        <v>6</v>
+      </c>
+      <c r="D187">
+        <v>5</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="G187" t="s">
+        <v>286</v>
+      </c>
+      <c r="H187">
+        <f t="shared" si="9"/>
+        <v>7.0713022981732472E-3</v>
+      </c>
+      <c r="I187">
+        <f t="shared" si="10"/>
+        <v>1.5306122448979591E-2</v>
+      </c>
+      <c r="J187">
+        <f t="shared" si="11"/>
+        <v>2.4509803921568627E-2</v>
+      </c>
+      <c r="K187">
+        <f t="shared" si="12"/>
+        <v>4.3859649122807015E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188" t="s">
+        <v>287</v>
+      </c>
+      <c r="B188">
+        <v>18</v>
+      </c>
+      <c r="C188">
+        <v>6</v>
+      </c>
+      <c r="D188">
+        <v>9</v>
+      </c>
+      <c r="E188">
+        <v>6</v>
+      </c>
+      <c r="G188" t="s">
+        <v>287</v>
+      </c>
+      <c r="H188">
+        <f t="shared" si="9"/>
+        <v>1.060695344725987E-2</v>
+      </c>
+      <c r="I188">
+        <f t="shared" si="10"/>
+        <v>1.5306122448979591E-2</v>
+      </c>
+      <c r="J188">
+        <f t="shared" si="11"/>
+        <v>4.4117647058823532E-2</v>
+      </c>
+      <c r="K188">
+        <f t="shared" si="12"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189" t="s">
+        <v>288</v>
+      </c>
+      <c r="B189">
+        <v>15</v>
+      </c>
+      <c r="C189">
+        <v>4</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189">
+        <v>2</v>
+      </c>
+      <c r="G189" t="s">
+        <v>288</v>
+      </c>
+      <c r="H189">
+        <f t="shared" si="9"/>
+        <v>8.8391278727165592E-3</v>
+      </c>
+      <c r="I189">
+        <f t="shared" si="10"/>
+        <v>1.020408163265306E-2</v>
+      </c>
+      <c r="J189">
+        <f t="shared" si="11"/>
+        <v>4.9019607843137254E-3</v>
+      </c>
+      <c r="K189">
+        <f t="shared" si="12"/>
+        <v>8.771929824561403E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190" t="s">
+        <v>289</v>
+      </c>
+      <c r="B190">
+        <v>111</v>
+      </c>
+      <c r="C190">
+        <v>22</v>
+      </c>
+      <c r="D190">
+        <v>8</v>
+      </c>
+      <c r="E190">
+        <v>20</v>
+      </c>
+      <c r="G190" t="s">
+        <v>289</v>
+      </c>
+      <c r="H190">
+        <f t="shared" si="9"/>
+        <v>6.5409546258102538E-2</v>
+      </c>
+      <c r="I190">
+        <f t="shared" si="10"/>
+        <v>5.6122448979591837E-2</v>
+      </c>
+      <c r="J190">
+        <f t="shared" si="11"/>
+        <v>3.9215686274509803E-2</v>
+      </c>
+      <c r="K190">
+        <f t="shared" si="12"/>
+        <v>8.771929824561403E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191" t="s">
+        <v>290</v>
+      </c>
+      <c r="B191">
+        <v>110</v>
+      </c>
+      <c r="C191">
+        <v>31</v>
+      </c>
+      <c r="D191">
+        <v>22</v>
+      </c>
+      <c r="E191">
+        <v>25</v>
+      </c>
+      <c r="G191" t="s">
+        <v>290</v>
+      </c>
+      <c r="H191">
+        <f t="shared" si="9"/>
+        <v>6.4820271066588095E-2</v>
+      </c>
+      <c r="I191">
+        <f t="shared" si="10"/>
+        <v>7.9081632653061229E-2</v>
+      </c>
+      <c r="J191">
+        <f t="shared" si="11"/>
+        <v>0.10784313725490197</v>
+      </c>
+      <c r="K191">
+        <f t="shared" si="12"/>
+        <v>0.10964912280701754</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192" t="s">
+        <v>291</v>
+      </c>
+      <c r="B192">
+        <v>7</v>
+      </c>
+      <c r="C192">
+        <v>5</v>
+      </c>
+      <c r="D192">
+        <v>2</v>
+      </c>
+      <c r="E192">
+        <v>4</v>
+      </c>
+      <c r="G192" t="s">
+        <v>291</v>
+      </c>
+      <c r="H192">
+        <f t="shared" si="9"/>
+        <v>4.1249263406010605E-3</v>
+      </c>
+      <c r="I192">
+        <f t="shared" si="10"/>
+        <v>1.2755102040816327E-2</v>
+      </c>
+      <c r="J192">
+        <f t="shared" si="11"/>
+        <v>9.8039215686274508E-3</v>
+      </c>
+      <c r="K192">
+        <f t="shared" si="12"/>
+        <v>1.7543859649122806E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193" t="s">
+        <v>292</v>
+      </c>
+      <c r="B193">
+        <v>1319</v>
+      </c>
+      <c r="C193">
+        <v>309</v>
+      </c>
+      <c r="D193">
+        <v>186</v>
+      </c>
+      <c r="E193">
+        <v>199</v>
+      </c>
+      <c r="G193" t="s">
+        <v>292</v>
+      </c>
+      <c r="H193">
+        <f t="shared" si="9"/>
+        <v>0.77725397760754267</v>
+      </c>
+      <c r="I193">
+        <f t="shared" si="10"/>
+        <v>0.78826530612244894</v>
+      </c>
+      <c r="J193">
+        <f t="shared" si="11"/>
+        <v>0.91176470588235292</v>
+      </c>
+      <c r="K193">
+        <f t="shared" si="12"/>
+        <v>0.8728070175438597</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194" t="s">
+        <v>293</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="G194" t="s">
+        <v>293</v>
+      </c>
+      <c r="H194">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195" t="s">
+        <v>294</v>
+      </c>
+      <c r="B195">
+        <v>24</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195">
+        <v>5</v>
+      </c>
+      <c r="G195" t="s">
+        <v>294</v>
+      </c>
+      <c r="H195">
+        <f t="shared" si="9"/>
+        <v>1.4142604596346494E-2</v>
+      </c>
+      <c r="I195">
+        <f t="shared" si="10"/>
+        <v>5.1020408163265302E-3</v>
+      </c>
+      <c r="J195">
+        <f t="shared" si="11"/>
+        <v>4.9019607843137254E-3</v>
+      </c>
+      <c r="K195">
+        <f t="shared" si="12"/>
+        <v>2.1929824561403508E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196" t="s">
+        <v>295</v>
+      </c>
+      <c r="B196">
+        <v>12</v>
+      </c>
+      <c r="C196">
+        <v>2</v>
+      </c>
+      <c r="D196">
+        <v>3</v>
+      </c>
+      <c r="E196">
+        <v>3</v>
+      </c>
+      <c r="G196" t="s">
+        <v>295</v>
+      </c>
+      <c r="H196">
+        <f t="shared" si="9"/>
+        <v>7.0713022981732472E-3</v>
+      </c>
+      <c r="I196">
+        <f t="shared" si="10"/>
+        <v>5.1020408163265302E-3</v>
+      </c>
+      <c r="J196">
+        <f t="shared" si="11"/>
+        <v>1.4705882352941176E-2</v>
+      </c>
+      <c r="K196">
+        <f t="shared" si="12"/>
+        <v>1.3157894736842105E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197" t="s">
+        <v>296</v>
+      </c>
+      <c r="B197">
+        <v>15</v>
+      </c>
+      <c r="C197">
+        <v>7</v>
+      </c>
+      <c r="D197">
+        <v>4</v>
+      </c>
+      <c r="E197">
+        <v>4</v>
+      </c>
+      <c r="G197" t="s">
+        <v>296</v>
+      </c>
+      <c r="H197">
+        <f t="shared" ref="H197:H220" si="13">B197/H$2</f>
+        <v>8.8391278727165592E-3</v>
+      </c>
+      <c r="I197">
+        <f t="shared" ref="I197:I220" si="14">C197/I$2</f>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="J197">
+        <f t="shared" ref="J197:J220" si="15">D197/J$2</f>
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="K197">
+        <f t="shared" ref="K197:K220" si="16">E197/K$2</f>
+        <v>1.7543859649122806E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198" t="s">
+        <v>297</v>
+      </c>
+      <c r="B198">
+        <v>7</v>
+      </c>
+      <c r="C198">
+        <v>3</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
+      <c r="E198">
+        <v>2</v>
+      </c>
+      <c r="G198" t="s">
+        <v>297</v>
+      </c>
+      <c r="H198">
+        <f t="shared" si="13"/>
+        <v>4.1249263406010605E-3</v>
+      </c>
+      <c r="I198">
+        <f t="shared" si="14"/>
+        <v>7.6530612244897957E-3</v>
+      </c>
+      <c r="J198">
+        <f t="shared" si="15"/>
+        <v>4.9019607843137254E-3</v>
+      </c>
+      <c r="K198">
+        <f t="shared" si="16"/>
+        <v>8.771929824561403E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199" t="s">
+        <v>298</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199">
+        <v>4</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="G199" t="s">
+        <v>298</v>
+      </c>
+      <c r="H199">
+        <f t="shared" si="13"/>
+        <v>5.8927519151443723E-4</v>
+      </c>
+      <c r="I199">
+        <f t="shared" si="14"/>
+        <v>1.020408163265306E-2</v>
+      </c>
+      <c r="J199">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200" t="s">
+        <v>299</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="G200" t="s">
+        <v>299</v>
+      </c>
+      <c r="H200">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <f t="shared" si="16"/>
+        <v>4.3859649122807015E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201" t="s">
+        <v>300</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="G201" t="s">
+        <v>300</v>
+      </c>
+      <c r="H201">
+        <f t="shared" si="13"/>
+        <v>5.8927519151443723E-4</v>
+      </c>
+      <c r="I201">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202" t="s">
+        <v>301</v>
+      </c>
+      <c r="B202">
+        <v>2</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="G202" t="s">
+        <v>301</v>
+      </c>
+      <c r="H202">
+        <f t="shared" si="13"/>
+        <v>1.1785503830288745E-3</v>
+      </c>
+      <c r="I202">
+        <f t="shared" si="14"/>
+        <v>2.5510204081632651E-3</v>
+      </c>
+      <c r="J202">
+        <f t="shared" si="15"/>
+        <v>4.9019607843137254E-3</v>
+      </c>
+      <c r="K202">
+        <f t="shared" si="16"/>
+        <v>4.3859649122807015E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203" t="s">
+        <v>302</v>
+      </c>
+      <c r="B203">
+        <v>2</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="G203" t="s">
+        <v>302</v>
+      </c>
+      <c r="H203">
+        <f t="shared" si="13"/>
+        <v>1.1785503830288745E-3</v>
+      </c>
+      <c r="I203">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204" t="s">
+        <v>303</v>
+      </c>
+      <c r="B204">
+        <v>9</v>
+      </c>
+      <c r="C204">
+        <v>6</v>
+      </c>
+      <c r="D204">
+        <v>4</v>
+      </c>
+      <c r="E204">
+        <v>2</v>
+      </c>
+      <c r="G204" t="s">
+        <v>303</v>
+      </c>
+      <c r="H204">
+        <f t="shared" si="13"/>
+        <v>5.3034767236299352E-3</v>
+      </c>
+      <c r="I204">
+        <f t="shared" si="14"/>
+        <v>1.5306122448979591E-2</v>
+      </c>
+      <c r="J204">
+        <f t="shared" si="15"/>
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="K204">
+        <f t="shared" si="16"/>
+        <v>8.771929824561403E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205" t="s">
+        <v>304</v>
+      </c>
+      <c r="B205">
+        <v>2</v>
+      </c>
+      <c r="C205">
+        <v>5</v>
+      </c>
+      <c r="D205">
+        <v>4</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="G205" t="s">
+        <v>304</v>
+      </c>
+      <c r="H205">
+        <f t="shared" si="13"/>
+        <v>1.1785503830288745E-3</v>
+      </c>
+      <c r="I205">
+        <f t="shared" si="14"/>
+        <v>1.2755102040816327E-2</v>
+      </c>
+      <c r="J205">
+        <f t="shared" si="15"/>
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="K205">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206" t="s">
+        <v>305</v>
+      </c>
+      <c r="B206">
+        <v>4</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="G206" t="s">
+        <v>305</v>
+      </c>
+      <c r="H206">
+        <f t="shared" si="13"/>
+        <v>2.3571007660577489E-3</v>
+      </c>
+      <c r="I206">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <f t="shared" si="15"/>
+        <v>4.9019607843137254E-3</v>
+      </c>
+      <c r="K206">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207" t="s">
+        <v>306</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="G207" t="s">
+        <v>306</v>
+      </c>
+      <c r="H207">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <f t="shared" si="14"/>
+        <v>2.5510204081632651E-3</v>
+      </c>
+      <c r="J207">
+        <f t="shared" si="15"/>
+        <v>4.9019607843137254E-3</v>
+      </c>
+      <c r="K207">
+        <f t="shared" si="16"/>
+        <v>4.3859649122807015E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208" t="s">
+        <v>307</v>
+      </c>
+      <c r="B208">
+        <v>231</v>
+      </c>
+      <c r="C208">
+        <v>52</v>
+      </c>
+      <c r="D208">
+        <v>52</v>
+      </c>
+      <c r="E208">
+        <v>38</v>
+      </c>
+      <c r="G208" t="s">
+        <v>307</v>
+      </c>
+      <c r="H208">
+        <f t="shared" si="13"/>
+        <v>0.13612256923983501</v>
+      </c>
+      <c r="I208">
+        <f t="shared" si="14"/>
+        <v>0.1326530612244898</v>
+      </c>
+      <c r="J208">
+        <f t="shared" si="15"/>
+        <v>0.25490196078431371</v>
+      </c>
+      <c r="K208">
+        <f t="shared" si="16"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209" t="s">
+        <v>308</v>
+      </c>
+      <c r="B209">
+        <v>1048</v>
+      </c>
+      <c r="C209">
+        <v>257</v>
+      </c>
+      <c r="D209">
+        <v>181</v>
+      </c>
+      <c r="E209">
+        <v>189</v>
+      </c>
+      <c r="G209" t="s">
+        <v>308</v>
+      </c>
+      <c r="H209">
+        <f t="shared" si="13"/>
+        <v>0.61756040070713025</v>
+      </c>
+      <c r="I209">
+        <f t="shared" si="14"/>
+        <v>0.65561224489795922</v>
+      </c>
+      <c r="J209">
+        <f t="shared" si="15"/>
+        <v>0.88725490196078427</v>
+      </c>
+      <c r="K209">
+        <f t="shared" si="16"/>
+        <v>0.82894736842105265</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210" t="s">
+        <v>309</v>
+      </c>
+      <c r="B210">
+        <v>1398</v>
+      </c>
+      <c r="C210">
+        <v>313</v>
+      </c>
+      <c r="D210">
+        <v>182</v>
+      </c>
+      <c r="E210">
+        <v>207</v>
+      </c>
+      <c r="G210" t="s">
+        <v>309</v>
+      </c>
+      <c r="H210">
+        <f t="shared" si="13"/>
+        <v>0.82380671773718328</v>
+      </c>
+      <c r="I210">
+        <f t="shared" si="14"/>
+        <v>0.79846938775510201</v>
+      </c>
+      <c r="J210">
+        <f t="shared" si="15"/>
+        <v>0.89215686274509809</v>
+      </c>
+      <c r="K210">
+        <f t="shared" si="16"/>
+        <v>0.90789473684210531</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211" t="s">
+        <v>310</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>152</v>
+      </c>
+      <c r="D211">
+        <v>184</v>
+      </c>
+      <c r="E211">
+        <v>68</v>
+      </c>
+      <c r="G211" t="s">
+        <v>310</v>
+      </c>
+      <c r="H211">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <f t="shared" si="14"/>
+        <v>0.38775510204081631</v>
+      </c>
+      <c r="J211">
+        <f t="shared" si="15"/>
+        <v>0.90196078431372551</v>
+      </c>
+      <c r="K211">
+        <f t="shared" si="16"/>
+        <v>0.2982456140350877</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212" t="s">
+        <v>311</v>
+      </c>
+      <c r="B212">
+        <v>5</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>9</v>
+      </c>
+      <c r="E212">
+        <v>9</v>
+      </c>
+      <c r="G212" t="s">
+        <v>311</v>
+      </c>
+      <c r="H212">
+        <f t="shared" si="13"/>
+        <v>2.9463759575721863E-3</v>
+      </c>
+      <c r="I212">
+        <f t="shared" si="14"/>
+        <v>2.5510204081632651E-3</v>
+      </c>
+      <c r="J212">
+        <f t="shared" si="15"/>
+        <v>4.4117647058823532E-2</v>
+      </c>
+      <c r="K212">
+        <f t="shared" si="16"/>
+        <v>3.9473684210526314E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213" t="s">
+        <v>312</v>
+      </c>
+      <c r="B213">
+        <v>82</v>
+      </c>
+      <c r="C213">
+        <v>13</v>
+      </c>
+      <c r="D213">
+        <v>24</v>
+      </c>
+      <c r="E213">
+        <v>16</v>
+      </c>
+      <c r="G213" t="s">
+        <v>312</v>
+      </c>
+      <c r="H213">
+        <f t="shared" si="13"/>
+        <v>4.8320565704183853E-2</v>
+      </c>
+      <c r="I213">
+        <f t="shared" si="14"/>
+        <v>3.3163265306122451E-2</v>
+      </c>
+      <c r="J213">
+        <f t="shared" si="15"/>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="K213">
+        <f t="shared" si="16"/>
+        <v>7.0175438596491224E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
+      <c r="A214" t="s">
+        <v>313</v>
+      </c>
+      <c r="B214">
+        <v>837</v>
+      </c>
+      <c r="C214">
+        <v>176</v>
+      </c>
+      <c r="D214">
+        <v>170</v>
+      </c>
+      <c r="E214">
+        <v>175</v>
+      </c>
+      <c r="G214" t="s">
+        <v>313</v>
+      </c>
+      <c r="H214">
+        <f t="shared" si="13"/>
+        <v>0.493223335297584</v>
+      </c>
+      <c r="I214">
+        <f t="shared" si="14"/>
+        <v>0.44897959183673469</v>
+      </c>
+      <c r="J214">
+        <f t="shared" si="15"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K214">
+        <f t="shared" si="16"/>
+        <v>0.76754385964912286</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
+      <c r="A215" t="s">
+        <v>314</v>
+      </c>
+      <c r="B215">
+        <v>53</v>
+      </c>
+      <c r="C215">
+        <v>2</v>
+      </c>
+      <c r="D215">
+        <v>88</v>
+      </c>
+      <c r="E215">
+        <v>172</v>
+      </c>
+      <c r="G215" t="s">
+        <v>314</v>
+      </c>
+      <c r="H215">
+        <f t="shared" si="13"/>
+        <v>3.1231585150265175E-2</v>
+      </c>
+      <c r="I215">
+        <f t="shared" si="14"/>
+        <v>5.1020408163265302E-3</v>
+      </c>
+      <c r="J215">
+        <f t="shared" si="15"/>
+        <v>0.43137254901960786</v>
+      </c>
+      <c r="K215">
+        <f t="shared" si="16"/>
+        <v>0.75438596491228072</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
+      <c r="A216" t="s">
+        <v>315</v>
+      </c>
+      <c r="B216">
+        <v>75</v>
+      </c>
+      <c r="C216">
+        <v>21</v>
+      </c>
+      <c r="D216">
+        <v>7</v>
+      </c>
+      <c r="E216">
+        <v>5</v>
+      </c>
+      <c r="G216" t="s">
+        <v>315</v>
+      </c>
+      <c r="H216">
+        <f t="shared" si="13"/>
+        <v>4.4195639363582791E-2</v>
+      </c>
+      <c r="I216">
+        <f t="shared" si="14"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="J216">
+        <f t="shared" si="15"/>
+        <v>3.4313725490196081E-2</v>
+      </c>
+      <c r="K216">
+        <f t="shared" si="16"/>
+        <v>2.1929824561403508E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
+      <c r="A217" t="s">
+        <v>316</v>
+      </c>
+      <c r="B217">
+        <v>670</v>
+      </c>
+      <c r="C217">
+        <v>193</v>
+      </c>
+      <c r="D217">
+        <v>125</v>
+      </c>
+      <c r="E217">
+        <v>126</v>
+      </c>
+      <c r="G217" t="s">
+        <v>316</v>
+      </c>
+      <c r="H217">
+        <f t="shared" si="13"/>
+        <v>0.39481437831467298</v>
+      </c>
+      <c r="I217">
+        <f t="shared" si="14"/>
+        <v>0.49234693877551022</v>
+      </c>
+      <c r="J217">
+        <f t="shared" si="15"/>
+        <v>0.61274509803921573</v>
+      </c>
+      <c r="K217">
+        <f t="shared" si="16"/>
+        <v>0.55263157894736847</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
+      <c r="A218" t="s">
+        <v>317</v>
+      </c>
+      <c r="B218">
+        <v>112</v>
+      </c>
+      <c r="C218">
+        <v>41</v>
+      </c>
+      <c r="D218">
+        <v>23</v>
+      </c>
+      <c r="E218">
+        <v>16</v>
+      </c>
+      <c r="G218" t="s">
+        <v>317</v>
+      </c>
+      <c r="H218">
+        <f t="shared" si="13"/>
+        <v>6.5998821449616968E-2</v>
+      </c>
+      <c r="I218">
+        <f t="shared" si="14"/>
+        <v>0.10459183673469388</v>
+      </c>
+      <c r="J218">
+        <f t="shared" si="15"/>
+        <v>0.11274509803921569</v>
+      </c>
+      <c r="K218">
+        <f t="shared" si="16"/>
+        <v>7.0175438596491224E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
+      <c r="A219" t="s">
+        <v>318</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="G219" t="s">
+        <v>318</v>
+      </c>
+      <c r="H219">
+        <f t="shared" si="13"/>
+        <v>5.8927519151443723E-4</v>
+      </c>
+      <c r="I219">
+        <f t="shared" si="14"/>
+        <v>2.5510204081632651E-3</v>
+      </c>
+      <c r="J219">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
+      <c r="A220" t="s">
+        <v>319</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>2</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="G220" t="s">
+        <v>319</v>
+      </c>
+      <c r="H220">
+        <f t="shared" si="13"/>
+        <v>5.8927519151443723E-4</v>
+      </c>
+      <c r="I220">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <f t="shared" si="15"/>
+        <v>9.8039215686274508E-3</v>
+      </c>
+      <c r="K220">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
+      <c r="A221" t="s">
+        <v>320</v>
+      </c>
+      <c r="B221" t="s">
+        <v>321</v>
+      </c>
+      <c r="C221" t="s">
+        <v>322</v>
+      </c>
+      <c r="D221" t="s">
+        <v>323</v>
+      </c>
+      <c r="E221" t="s">
+        <v>327</v>
+      </c>
+      <c r="G221" t="s">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>